--- a/Formatted_Excel_Files/State of the Tropics_The Tropics_Population _2010 - 2050 projection _under 15 years.xlsx
+++ b/Formatted_Excel_Files/State of the Tropics_The Tropics_Population _2010 - 2050 projection _under 15 years.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="150" windowWidth="17520" windowHeight="13200" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="150" windowWidth="17520" windowHeight="13200" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Tropics" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="Summary" sheetId="3" r:id="rId3"/>
     <sheet name="Tropics-Tableau" sheetId="4" r:id="rId4"/>
     <sheet name="Rest of the World-Tableau" sheetId="5" r:id="rId5"/>
+    <sheet name="Summary-Tableau" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3129" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3227" uniqueCount="227">
   <si>
     <t>Major area, region, country or area</t>
   </si>
@@ -386,18 +387,6 @@
     <t>SoT Region</t>
   </si>
   <si>
-    <t>Description of Data</t>
-  </si>
-  <si>
-    <t>Estimates, 1950-2010</t>
-  </si>
-  <si>
-    <t>Source</t>
-  </si>
-  <si>
-    <t>United Nations Population Division, Department of Econmoic and Social Affairs - World Population Prospects: the 2012 Revision.</t>
-  </si>
-  <si>
     <t>Algeria</t>
   </si>
   <si>
@@ -701,13 +690,16 @@
     <t>Total</t>
   </si>
   <si>
-    <t>File POP/1-1: Total population by age and sex by major area, region and country, annually for 1950-2100 (thousands)</t>
-  </si>
-  <si>
     <t>Year</t>
   </si>
   <si>
     <t>Estimated Population under 15 years (thousands)</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Population Under 15 years(thousands)</t>
   </si>
 </sst>
 </file>
@@ -4878,7 +4870,7 @@
         <v>119</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C112" s="2">
         <v>941316.31348355359</v>
@@ -5105,7 +5097,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B3">
         <v>10051.463</v>
@@ -5137,7 +5129,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B4">
         <v>24604.881999999998</v>
@@ -5169,7 +5161,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B5">
         <v>1778.6660000000002</v>
@@ -5201,7 +5193,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B6">
         <v>8899.1299999999992</v>
@@ -5233,7 +5225,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B7">
         <v>2497.723</v>
@@ -5265,7 +5257,7 @@
     </row>
     <row r="8" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B8">
         <v>141.011</v>
@@ -5301,7 +5293,7 @@
     </row>
     <row r="9" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B9">
         <v>756.15800000000002</v>
@@ -5337,7 +5329,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B10">
         <v>15287.123</v>
@@ -5369,7 +5361,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B11">
         <v>463.43200000000002</v>
@@ -5437,7 +5429,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B13">
         <v>5553.277</v>
@@ -5469,7 +5461,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B14">
         <v>16920.666999999998</v>
@@ -5501,7 +5493,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B15">
         <v>731.17100000000005</v>
@@ -5533,7 +5525,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B16">
         <v>7869.8950000000004</v>
@@ -5565,7 +5557,7 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B17">
         <v>3701.163</v>
@@ -5597,7 +5589,7 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B18">
         <v>3966.3690000000006</v>
@@ -5629,7 +5621,7 @@
     </row>
     <row r="19" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B19">
         <v>1602.7199999999998</v>
@@ -5665,7 +5657,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B20">
         <v>2739.2069999999999</v>
@@ -5697,7 +5689,7 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B21">
         <v>1473.7660000000001</v>
@@ -5729,7 +5721,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B22">
         <v>8267.4219999999987</v>
@@ -5761,7 +5753,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B23">
         <v>13802.160000000002</v>
@@ -5829,7 +5821,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B25">
         <v>213.36799999999999</v>
@@ -5897,7 +5889,7 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B27">
         <v>17585.545000000002</v>
@@ -5929,7 +5921,7 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B28">
         <v>9961.9579999999987</v>
@@ -5961,7 +5953,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B29">
         <v>61361.315000000002</v>
@@ -5993,7 +5985,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B30">
         <v>607.96</v>
@@ -6025,7 +6017,7 @@
     </row>
     <row r="31" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B31">
         <v>2063.9059999999999</v>
@@ -6061,7 +6053,7 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B32">
         <v>248.65300000000002</v>
@@ -6093,7 +6085,7 @@
     </row>
     <row r="33" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B33">
         <v>196.11099999999999</v>
@@ -6129,7 +6121,7 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B34">
         <v>759.1579999999999</v>
@@ -6161,7 +6153,7 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B35">
         <v>12765.553</v>
@@ -6193,7 +6185,7 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B36">
         <v>2021.328</v>
@@ -6225,7 +6217,7 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B37">
         <v>2264.61</v>
@@ -6257,7 +6249,7 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B38">
         <v>754.09400000000005</v>
@@ -6289,7 +6281,7 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B39">
         <v>1029.08</v>
@@ -6321,12 +6313,12 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B41">
         <v>768.08499999999992</v>
@@ -6358,7 +6350,7 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B42">
         <v>240.23200000000003</v>
@@ -6426,7 +6418,7 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B44">
         <v>7694.5239999999994</v>
@@ -6458,7 +6450,7 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B45">
         <v>19262.091</v>
@@ -6490,7 +6482,7 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B46">
         <v>1169.9479999999999</v>
@@ -6522,7 +6514,7 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B47">
         <v>1409.2840000000001</v>
@@ -6554,7 +6546,7 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B48">
         <v>984.12400000000002</v>
@@ -6586,7 +6578,7 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B49">
         <v>1497.8330000000001</v>
@@ -6618,7 +6610,7 @@
     </row>
     <row r="50" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B50">
         <v>1466.556</v>
@@ -6654,7 +6646,7 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B51">
         <v>5733.317</v>
@@ -6686,7 +6678,7 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B52">
         <v>595.6400000000001</v>
@@ -6718,7 +6710,7 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B53">
         <v>3282.2700000000004</v>
@@ -6750,7 +6742,7 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B54">
         <v>21429.095999999998</v>
@@ -6782,7 +6774,7 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B55">
         <v>821.91899999999998</v>
@@ -6814,7 +6806,7 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B56">
         <v>6399.2</v>
@@ -6846,7 +6838,7 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B57">
         <v>24.378999999999998</v>
@@ -6878,12 +6870,12 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B59">
         <v>997.08400000000006</v>
@@ -6915,7 +6907,7 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B60">
         <v>199.982</v>
@@ -6947,12 +6939,12 @@
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B62">
         <v>886.05200000000002</v>
@@ -6984,7 +6976,7 @@
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B63">
         <v>66.540999999999997</v>
@@ -7016,7 +7008,7 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B64">
         <v>953.64599999999996</v>
@@ -7048,7 +7040,7 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B65">
         <v>295.90999999999997</v>
@@ -7080,7 +7072,7 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B66">
         <v>467.41300000000001</v>
@@ -7112,7 +7104,7 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B67">
         <v>919.70399999999995</v>
@@ -7144,7 +7136,7 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B68">
         <v>1548.7560000000001</v>
@@ -7176,7 +7168,7 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B69">
         <v>10898.934999999999</v>
@@ -7208,7 +7200,7 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B70">
         <v>719.11500000000001</v>
@@ -7240,12 +7232,12 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B72">
         <v>669.03800000000001</v>
@@ -7277,7 +7269,7 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B73">
         <v>663.59699999999998</v>
@@ -7309,12 +7301,12 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B75">
         <v>1612.8629999999998</v>
@@ -7346,12 +7338,12 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B77">
         <v>8495.4480000000003</v>
@@ -7383,7 +7375,7 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B78">
         <v>66.36</v>
@@ -7415,7 +7407,7 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B79">
         <v>120.699</v>
@@ -7447,7 +7439,7 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B80">
         <v>1604.2380000000001</v>
@@ -7479,12 +7471,12 @@
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B82">
         <v>1627.4650000000001</v>
@@ -7516,7 +7508,7 @@
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B83">
         <v>287.863</v>
@@ -7548,7 +7540,7 @@
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B84">
         <v>6893.5910000000003</v>
@@ -7580,7 +7572,7 @@
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B85">
         <v>366.48400000000004</v>
@@ -7612,7 +7604,7 @@
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B86">
         <v>1239.472</v>
@@ -7644,7 +7636,7 @@
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B87">
         <v>1835.5659999999998</v>
@@ -7676,7 +7668,7 @@
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B88">
         <v>11604.838</v>
@@ -7708,7 +7700,7 @@
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B89">
         <v>11133.076999999999</v>
@@ -7740,12 +7732,12 @@
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B91">
         <v>89.619</v>
@@ -7777,12 +7769,12 @@
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B93">
         <v>2908.058</v>
@@ -7814,7 +7806,7 @@
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B94">
         <v>1178.8539999999998</v>
@@ -7846,7 +7838,7 @@
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B95">
         <v>81.081000000000003</v>
@@ -7950,7 +7942,7 @@
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B98">
         <v>10043.626</v>
@@ -7982,7 +7974,7 @@
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B99">
         <v>3797.2139999999999</v>
@@ -8014,12 +8006,12 @@
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B101">
         <v>2166.61</v>
@@ -8051,7 +8043,7 @@
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B102">
         <v>758.89099999999996</v>
@@ -8083,7 +8075,7 @@
     </row>
     <row r="103" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B103">
         <v>5621.7719999999999</v>
@@ -8119,7 +8111,7 @@
     </row>
     <row r="104" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B104"/>
       <c r="C104"/>
@@ -8137,12 +8129,12 @@
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.25">
@@ -8219,7 +8211,7 @@
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B109">
         <v>894.99499999999989</v>
@@ -8251,7 +8243,7 @@
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B110" s="2">
         <v>898297.29351644625</v>
@@ -8340,10 +8332,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8355,417 +8347,398 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B1" t="s">
-        <v>125</v>
+      <c r="A1" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B1" s="7">
+        <v>2010</v>
+      </c>
+      <c r="C1" s="7">
+        <v>2015</v>
+      </c>
+      <c r="D1" s="7">
+        <v>2020</v>
+      </c>
+      <c r="E1" s="7">
+        <v>2025</v>
+      </c>
+      <c r="F1" s="7">
+        <v>2030</v>
+      </c>
+      <c r="G1" s="7">
+        <v>2035</v>
+      </c>
+      <c r="H1" s="7">
+        <v>2040</v>
+      </c>
+      <c r="I1" s="7">
+        <v>2045</v>
+      </c>
+      <c r="J1" s="7">
+        <v>2050</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B2" t="s">
-        <v>227</v>
+      <c r="A2" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="8">
+        <v>941316.31348355347</v>
+      </c>
+      <c r="C2" s="8">
+        <v>1024039.8396577267</v>
+      </c>
+      <c r="D2" s="8">
+        <v>1123960.1863346051</v>
+      </c>
+      <c r="E2" s="8">
+        <v>1245135.9406838862</v>
+      </c>
+      <c r="F2" s="8">
+        <v>1352697.9628249924</v>
+      </c>
+      <c r="G2" s="8">
+        <v>1474770.5147653744</v>
+      </c>
+      <c r="H2" s="8">
+        <v>1626037.010131381</v>
+      </c>
+      <c r="I2" s="8">
+        <v>1818490.2078552013</v>
+      </c>
+      <c r="J2" s="8">
+        <v>2051880.4003219805</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>123</v>
+      <c r="A3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8">
+        <v>305377.39399999991</v>
+      </c>
+      <c r="C3" s="8">
+        <v>352758.62700000009</v>
+      </c>
+      <c r="D3" s="8">
+        <v>410374.86299999995</v>
+      </c>
+      <c r="E3" s="8">
+        <v>480024.99</v>
+      </c>
+      <c r="F3" s="8">
+        <v>558485.66999999993</v>
+      </c>
+      <c r="G3" s="8">
+        <v>650590.25500000012</v>
+      </c>
+      <c r="H3" s="8">
+        <v>762102.83900000004</v>
+      </c>
+      <c r="I3" s="8">
+        <v>897116.06200000003</v>
+      </c>
+      <c r="J3" s="8">
+        <v>1060226.7350000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="8">
+        <v>66885.272306790517</v>
+      </c>
+      <c r="C4" s="8">
+        <v>77784.224008235455</v>
+      </c>
+      <c r="D4" s="8">
+        <v>90772.08517126611</v>
+      </c>
+      <c r="E4" s="8">
+        <v>106732.31903542407</v>
+      </c>
+      <c r="F4" s="8">
+        <v>124580.43851287322</v>
+      </c>
+      <c r="G4" s="8">
+        <v>145541.65035129356</v>
+      </c>
+      <c r="H4" s="8">
+        <v>171049.42519192665</v>
+      </c>
+      <c r="I4" s="8">
+        <v>202514.35348875701</v>
+      </c>
+      <c r="J4" s="8">
+        <v>241170.40428336698</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="8">
+        <v>231121.1103305202</v>
+      </c>
+      <c r="C5" s="8">
+        <v>239038.28569778157</v>
+      </c>
+      <c r="D5" s="8">
+        <v>249195.39948796621</v>
+      </c>
+      <c r="E5" s="8">
+        <v>263579.83444738202</v>
+      </c>
+      <c r="F5" s="8">
+        <v>269065.34540962375</v>
+      </c>
+      <c r="G5" s="8">
+        <v>273144.28460939217</v>
+      </c>
+      <c r="H5" s="8">
+        <v>278661.48031275673</v>
+      </c>
+      <c r="I5" s="8">
+        <v>289294.73680115282</v>
+      </c>
+      <c r="J5" s="8">
+        <v>301458.25766946445</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="8">
+        <v>198511.65434802676</v>
+      </c>
+      <c r="C6" s="8">
+        <v>211500.64090856933</v>
+      </c>
+      <c r="D6" s="8">
+        <v>224757.50927190753</v>
+      </c>
+      <c r="E6" s="8">
+        <v>236556.44683139806</v>
+      </c>
+      <c r="F6" s="8">
+        <v>237231.90498744533</v>
+      </c>
+      <c r="G6" s="8">
+        <v>238288.77043175974</v>
+      </c>
+      <c r="H6" s="8">
+        <v>242670.05458193374</v>
+      </c>
+      <c r="I6" s="8">
+        <v>251356.64846450739</v>
+      </c>
+      <c r="J6" s="8">
+        <v>262530.90837981889</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="7">
-        <v>2010</v>
-      </c>
-      <c r="C7" s="7">
-        <v>2015</v>
-      </c>
-      <c r="D7" s="7">
-        <v>2020</v>
-      </c>
-      <c r="E7" s="7">
-        <v>2025</v>
-      </c>
-      <c r="F7" s="7">
-        <v>2030</v>
-      </c>
-      <c r="G7" s="7">
-        <v>2035</v>
-      </c>
-      <c r="H7" s="7">
-        <v>2040</v>
-      </c>
-      <c r="I7" s="7">
-        <v>2045</v>
-      </c>
-      <c r="J7" s="7">
-        <v>2050</v>
+      <c r="A7" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="8">
+        <v>10635.346000000001</v>
+      </c>
+      <c r="C7" s="8">
+        <v>11027.097999999998</v>
+      </c>
+      <c r="D7" s="8">
+        <v>11610.992</v>
+      </c>
+      <c r="E7" s="8">
+        <v>12349.999</v>
+      </c>
+      <c r="F7" s="8">
+        <v>12705.344999999999</v>
+      </c>
+      <c r="G7" s="8">
+        <v>13003.441999999999</v>
+      </c>
+      <c r="H7" s="8">
+        <v>13420.992</v>
+      </c>
+      <c r="I7" s="8">
+        <v>14059.858000000002</v>
+      </c>
+      <c r="J7" s="8">
+        <v>14815.963</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="B8" s="8">
-        <v>941316.31348355347</v>
+        <v>42672.365133810628</v>
       </c>
       <c r="C8" s="8">
-        <v>1024039.8396577267</v>
+        <v>43933.523418452212</v>
       </c>
       <c r="D8" s="8">
-        <v>1123960.1863346051</v>
+        <v>46177.159893114353</v>
       </c>
       <c r="E8" s="8">
-        <v>1245135.9406838862</v>
+        <v>49177.786133178335</v>
       </c>
       <c r="F8" s="8">
-        <v>1352697.9628249924</v>
+        <v>51567.792092999778</v>
       </c>
       <c r="G8" s="8">
-        <v>1474770.5147653744</v>
+        <v>53664.342982085887</v>
       </c>
       <c r="H8" s="8">
-        <v>1626037.010131381</v>
+        <v>55994.927987363859</v>
       </c>
       <c r="I8" s="8">
-        <v>1818490.2078552013</v>
+        <v>58878.461025439297</v>
       </c>
       <c r="J8" s="8">
-        <v>2051880.4003219805</v>
+        <v>62328.36648622869</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>2</v>
+        <v>94</v>
       </c>
       <c r="B9" s="8">
-        <v>305377.39399999991</v>
+        <v>82062.941007998481</v>
       </c>
       <c r="C9" s="8">
-        <v>352758.62700000009</v>
+        <v>83598.270778066304</v>
       </c>
       <c r="D9" s="8">
-        <v>410374.86299999995</v>
+        <v>86220.210444676472</v>
       </c>
       <c r="E9" s="8">
-        <v>480024.99</v>
+        <v>91304.864041957466</v>
       </c>
       <c r="F9" s="8">
-        <v>558485.66999999993</v>
+        <v>93095.977800568158</v>
       </c>
       <c r="G9" s="8">
-        <v>650590.25500000012</v>
+        <v>94004.490759611566</v>
       </c>
       <c r="H9" s="8">
-        <v>762102.83900000004</v>
+        <v>94994.611686046308</v>
       </c>
       <c r="I9" s="8">
-        <v>897116.06200000003</v>
+        <v>97422.031236902636</v>
       </c>
       <c r="J9" s="8">
-        <v>1060226.7350000001</v>
+        <v>100677.71741082353</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>39</v>
+        <v>103</v>
       </c>
       <c r="B10" s="8">
-        <v>66885.272306790517</v>
+        <v>4050.2303564068729</v>
       </c>
       <c r="C10" s="8">
-        <v>77784.224008235455</v>
+        <v>4399.1698466218286</v>
       </c>
       <c r="D10" s="8">
-        <v>90772.08517126611</v>
+        <v>4851.9670656743865</v>
       </c>
       <c r="E10" s="8">
-        <v>106732.31903542407</v>
+        <v>5409.7011945462173</v>
       </c>
       <c r="F10" s="8">
-        <v>124580.43851287322</v>
+        <v>5965.4890214824281</v>
       </c>
       <c r="G10" s="8">
-        <v>145541.65035129356</v>
+        <v>6533.2786312309818</v>
       </c>
       <c r="H10" s="8">
-        <v>171049.42519192665</v>
+        <v>7142.679371353679</v>
       </c>
       <c r="I10" s="8">
-        <v>202514.35348875701</v>
+        <v>7848.056838442425</v>
       </c>
       <c r="J10" s="8">
-        <v>241170.40428336698</v>
+        <v>8672.0480922777751</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>52</v>
+        <v>120</v>
       </c>
       <c r="B11" s="8">
-        <v>231121.1103305202</v>
+        <v>898297.29351644625</v>
       </c>
       <c r="C11" s="8">
-        <v>239038.28569778157</v>
+        <v>985312.47134227341</v>
       </c>
       <c r="D11" s="8">
-        <v>249195.39948796621</v>
+        <v>1077665.1056653948</v>
       </c>
       <c r="E11" s="8">
-        <v>263579.83444738202</v>
+        <v>1150231.6223161139</v>
       </c>
       <c r="F11" s="8">
-        <v>269065.34540962375</v>
+        <v>1140362.859175008</v>
       </c>
       <c r="G11" s="8">
-        <v>273144.28460939217</v>
+        <v>1139136.6812346259</v>
       </c>
       <c r="H11" s="8">
-        <v>278661.48031275673</v>
+        <v>1167254.8728686192</v>
       </c>
       <c r="I11" s="8">
-        <v>289294.73680115282</v>
+        <v>1229265.5081447982</v>
       </c>
       <c r="J11" s="8">
-        <v>301458.25766946445</v>
+        <v>1306266.3206780192</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="B12" s="8">
-        <v>198511.65434802676</v>
+        <v>1842236.9780000001</v>
       </c>
       <c r="C12" s="8">
-        <v>211500.64090856933</v>
+        <v>1971607.5409999997</v>
       </c>
       <c r="D12" s="8">
-        <v>224757.50927190753</v>
+        <v>2134885.7249999996</v>
       </c>
       <c r="E12" s="8">
-        <v>236556.44683139806</v>
+        <v>2296484.3820000002</v>
       </c>
       <c r="F12" s="8">
-        <v>237231.90498744533</v>
+        <v>2371051.5830000001</v>
       </c>
       <c r="G12" s="8">
-        <v>238288.77043175974</v>
+        <v>2452954.577</v>
       </c>
       <c r="H12" s="8">
-        <v>242670.05458193374</v>
+        <v>2586828.0989999999</v>
       </c>
       <c r="I12" s="8">
-        <v>251356.64846450739</v>
+        <v>2804311.3569999998</v>
       </c>
       <c r="J12" s="8">
-        <v>262530.90837981889</v>
+        <v>3069537.2379999999</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B13" s="8">
-        <v>10635.346000000001</v>
-      </c>
-      <c r="C13" s="8">
-        <v>11027.097999999998</v>
-      </c>
-      <c r="D13" s="8">
-        <v>11610.992</v>
-      </c>
-      <c r="E13" s="8">
-        <v>12349.999</v>
-      </c>
-      <c r="F13" s="8">
-        <v>12705.344999999999</v>
-      </c>
-      <c r="G13" s="8">
-        <v>13003.441999999999</v>
-      </c>
-      <c r="H13" s="8">
-        <v>13420.992</v>
-      </c>
-      <c r="I13" s="8">
-        <v>14059.858000000002</v>
-      </c>
-      <c r="J13" s="8">
-        <v>14815.963</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B14" s="8">
-        <v>42672.365133810628</v>
-      </c>
-      <c r="C14" s="8">
-        <v>43933.523418452212</v>
-      </c>
-      <c r="D14" s="8">
-        <v>46177.159893114353</v>
-      </c>
-      <c r="E14" s="8">
-        <v>49177.786133178335</v>
-      </c>
-      <c r="F14" s="8">
-        <v>51567.792092999778</v>
-      </c>
-      <c r="G14" s="8">
-        <v>53664.342982085887</v>
-      </c>
-      <c r="H14" s="8">
-        <v>55994.927987363859</v>
-      </c>
-      <c r="I14" s="8">
-        <v>58878.461025439297</v>
-      </c>
-      <c r="J14" s="8">
-        <v>62328.36648622869</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B15" s="8">
-        <v>82062.941007998481</v>
-      </c>
-      <c r="C15" s="8">
-        <v>83598.270778066304</v>
-      </c>
-      <c r="D15" s="8">
-        <v>86220.210444676472</v>
-      </c>
-      <c r="E15" s="8">
-        <v>91304.864041957466</v>
-      </c>
-      <c r="F15" s="8">
-        <v>93095.977800568158</v>
-      </c>
-      <c r="G15" s="8">
-        <v>94004.490759611566</v>
-      </c>
-      <c r="H15" s="8">
-        <v>94994.611686046308</v>
-      </c>
-      <c r="I15" s="8">
-        <v>97422.031236902636</v>
-      </c>
-      <c r="J15" s="8">
-        <v>100677.71741082353</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B16" s="8">
-        <v>4050.2303564068729</v>
-      </c>
-      <c r="C16" s="8">
-        <v>4399.1698466218286</v>
-      </c>
-      <c r="D16" s="8">
-        <v>4851.9670656743865</v>
-      </c>
-      <c r="E16" s="8">
-        <v>5409.7011945462173</v>
-      </c>
-      <c r="F16" s="8">
-        <v>5965.4890214824281</v>
-      </c>
-      <c r="G16" s="8">
-        <v>6533.2786312309818</v>
-      </c>
-      <c r="H16" s="8">
-        <v>7142.679371353679</v>
-      </c>
-      <c r="I16" s="8">
-        <v>7848.056838442425</v>
-      </c>
-      <c r="J16" s="8">
-        <v>8672.0480922777751</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B17" s="8">
-        <v>898297.29351644625</v>
-      </c>
-      <c r="C17" s="8">
-        <v>985312.47134227341</v>
-      </c>
-      <c r="D17" s="8">
-        <v>1077665.1056653948</v>
-      </c>
-      <c r="E17" s="8">
-        <v>1150231.6223161139</v>
-      </c>
-      <c r="F17" s="8">
-        <v>1140362.859175008</v>
-      </c>
-      <c r="G17" s="8">
-        <v>1139136.6812346259</v>
-      </c>
-      <c r="H17" s="8">
-        <v>1167254.8728686192</v>
-      </c>
-      <c r="I17" s="8">
-        <v>1229265.5081447982</v>
-      </c>
-      <c r="J17" s="8">
-        <v>1306266.3206780192</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18" s="8">
-        <v>1842236.9780000001</v>
-      </c>
-      <c r="C18" s="8">
-        <v>1971607.5409999997</v>
-      </c>
-      <c r="D18" s="8">
-        <v>2134885.7249999996</v>
-      </c>
-      <c r="E18" s="8">
-        <v>2296484.3820000002</v>
-      </c>
-      <c r="F18" s="8">
-        <v>2371051.5830000001</v>
-      </c>
-      <c r="G18" s="8">
-        <v>2452954.577</v>
-      </c>
-      <c r="H18" s="8">
-        <v>2586828.0989999999</v>
-      </c>
-      <c r="I18" s="8">
-        <v>2804311.3569999998</v>
-      </c>
-      <c r="J18" s="8">
-        <v>3069537.2379999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8777,7 +8750,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D955"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -8795,10 +8768,10 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D1" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -22036,7 +22009,7 @@
         <v>119</v>
       </c>
       <c r="B947" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C947">
         <v>2010</v>
@@ -22050,7 +22023,7 @@
         <v>119</v>
       </c>
       <c r="B948" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C948">
         <v>2015</v>
@@ -22064,7 +22037,7 @@
         <v>119</v>
       </c>
       <c r="B949" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C949">
         <v>2020</v>
@@ -22078,7 +22051,7 @@
         <v>119</v>
       </c>
       <c r="B950" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C950">
         <v>2025</v>
@@ -22092,7 +22065,7 @@
         <v>119</v>
       </c>
       <c r="B951" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C951">
         <v>2030</v>
@@ -22106,7 +22079,7 @@
         <v>119</v>
       </c>
       <c r="B952" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C952">
         <v>2035</v>
@@ -22120,7 +22093,7 @@
         <v>119</v>
       </c>
       <c r="B953" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C953">
         <v>2040</v>
@@ -22134,7 +22107,7 @@
         <v>119</v>
       </c>
       <c r="B954" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C954">
         <v>2045</v>
@@ -22148,7 +22121,7 @@
         <v>119</v>
       </c>
       <c r="B955" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C955">
         <v>2050</v>
@@ -22181,10 +22154,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C1" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -22288,7 +22261,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B11">
         <v>2010</v>
@@ -22299,7 +22272,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B12">
         <v>2015</v>
@@ -22310,7 +22283,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B13">
         <v>2020</v>
@@ -22321,7 +22294,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B14">
         <v>2025</v>
@@ -22332,7 +22305,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B15">
         <v>2030</v>
@@ -22343,7 +22316,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B16">
         <v>2035</v>
@@ -22354,7 +22327,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B17">
         <v>2040</v>
@@ -22365,7 +22338,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B18">
         <v>2045</v>
@@ -22376,7 +22349,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B19">
         <v>2050</v>
@@ -22387,7 +22360,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B20">
         <v>2010</v>
@@ -22398,7 +22371,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B21">
         <v>2015</v>
@@ -22409,7 +22382,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B22">
         <v>2020</v>
@@ -22420,7 +22393,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B23">
         <v>2025</v>
@@ -22431,7 +22404,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B24">
         <v>2030</v>
@@ -22442,7 +22415,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B25">
         <v>2035</v>
@@ -22453,7 +22426,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B26">
         <v>2040</v>
@@ -22464,7 +22437,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B27">
         <v>2045</v>
@@ -22475,7 +22448,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B28">
         <v>2050</v>
@@ -22486,7 +22459,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B29">
         <v>2010</v>
@@ -22497,7 +22470,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B30">
         <v>2015</v>
@@ -22508,7 +22481,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B31">
         <v>2020</v>
@@ -22519,7 +22492,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B32">
         <v>2025</v>
@@ -22530,7 +22503,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B33">
         <v>2030</v>
@@ -22541,7 +22514,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B34">
         <v>2035</v>
@@ -22552,7 +22525,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B35">
         <v>2040</v>
@@ -22563,7 +22536,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B36">
         <v>2045</v>
@@ -22574,7 +22547,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B37">
         <v>2050</v>
@@ -22585,7 +22558,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B38">
         <v>2010</v>
@@ -22596,7 +22569,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B39">
         <v>2015</v>
@@ -22607,7 +22580,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B40">
         <v>2020</v>
@@ -22618,7 +22591,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B41">
         <v>2025</v>
@@ -22629,7 +22602,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B42">
         <v>2030</v>
@@ -22640,7 +22613,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B43">
         <v>2035</v>
@@ -22651,7 +22624,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B44">
         <v>2040</v>
@@ -22662,7 +22635,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B45">
         <v>2045</v>
@@ -22673,7 +22646,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B46">
         <v>2050</v>
@@ -22684,7 +22657,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B47">
         <v>2010</v>
@@ -22695,7 +22668,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B48">
         <v>2015</v>
@@ -22706,7 +22679,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B49">
         <v>2020</v>
@@ -22717,7 +22690,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B50">
         <v>2025</v>
@@ -22728,7 +22701,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B51">
         <v>2030</v>
@@ -22739,7 +22712,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B52">
         <v>2035</v>
@@ -22750,7 +22723,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B53">
         <v>2040</v>
@@ -22761,7 +22734,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B54">
         <v>2045</v>
@@ -22772,7 +22745,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B55">
         <v>2050</v>
@@ -22783,7 +22756,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B56">
         <v>2010</v>
@@ -22794,7 +22767,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B57">
         <v>2015</v>
@@ -22805,7 +22778,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B58">
         <v>2020</v>
@@ -22816,7 +22789,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B59">
         <v>2025</v>
@@ -22827,7 +22800,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B60">
         <v>2030</v>
@@ -22838,7 +22811,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B61">
         <v>2035</v>
@@ -22849,7 +22822,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B62">
         <v>2040</v>
@@ -22860,7 +22833,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B63">
         <v>2045</v>
@@ -22871,7 +22844,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B64">
         <v>2050</v>
@@ -22882,7 +22855,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B65">
         <v>2010</v>
@@ -22893,7 +22866,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B66">
         <v>2015</v>
@@ -22904,7 +22877,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B67">
         <v>2020</v>
@@ -22915,7 +22888,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B68">
         <v>2025</v>
@@ -22926,7 +22899,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B69">
         <v>2030</v>
@@ -22937,7 +22910,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B70">
         <v>2035</v>
@@ -22948,7 +22921,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B71">
         <v>2040</v>
@@ -22959,7 +22932,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B72">
         <v>2045</v>
@@ -22970,7 +22943,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B73">
         <v>2050</v>
@@ -22981,7 +22954,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B74">
         <v>2010</v>
@@ -22992,7 +22965,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B75">
         <v>2015</v>
@@ -23003,7 +22976,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B76">
         <v>2020</v>
@@ -23014,7 +22987,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B77">
         <v>2025</v>
@@ -23025,7 +22998,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B78">
         <v>2030</v>
@@ -23036,7 +23009,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B79">
         <v>2035</v>
@@ -23047,7 +23020,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B80">
         <v>2040</v>
@@ -23058,7 +23031,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B81">
         <v>2045</v>
@@ -23069,7 +23042,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B82">
         <v>2050</v>
@@ -23080,7 +23053,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B83">
         <v>2010</v>
@@ -23091,7 +23064,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B84">
         <v>2015</v>
@@ -23102,7 +23075,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B85">
         <v>2020</v>
@@ -23113,7 +23086,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B86">
         <v>2025</v>
@@ -23124,7 +23097,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B87">
         <v>2030</v>
@@ -23135,7 +23108,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B88">
         <v>2035</v>
@@ -23146,7 +23119,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B89">
         <v>2040</v>
@@ -23157,7 +23130,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B90">
         <v>2045</v>
@@ -23168,7 +23141,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B91">
         <v>2050</v>
@@ -23278,7 +23251,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B101">
         <v>2010</v>
@@ -23289,7 +23262,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B102">
         <v>2015</v>
@@ -23300,7 +23273,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B103">
         <v>2020</v>
@@ -23311,7 +23284,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B104">
         <v>2025</v>
@@ -23322,7 +23295,7 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B105">
         <v>2030</v>
@@ -23333,7 +23306,7 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B106">
         <v>2035</v>
@@ -23344,7 +23317,7 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B107">
         <v>2040</v>
@@ -23355,7 +23328,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B108">
         <v>2045</v>
@@ -23366,7 +23339,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B109">
         <v>2050</v>
@@ -23377,7 +23350,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B110">
         <v>2010</v>
@@ -23388,7 +23361,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B111">
         <v>2015</v>
@@ -23399,7 +23372,7 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B112">
         <v>2020</v>
@@ -23410,7 +23383,7 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B113">
         <v>2025</v>
@@ -23421,7 +23394,7 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B114">
         <v>2030</v>
@@ -23432,7 +23405,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B115">
         <v>2035</v>
@@ -23443,7 +23416,7 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B116">
         <v>2040</v>
@@ -23454,7 +23427,7 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B117">
         <v>2045</v>
@@ -23465,7 +23438,7 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B118">
         <v>2050</v>
@@ -23476,7 +23449,7 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B119">
         <v>2010</v>
@@ -23487,7 +23460,7 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B120">
         <v>2015</v>
@@ -23498,7 +23471,7 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B121">
         <v>2020</v>
@@ -23509,7 +23482,7 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B122">
         <v>2025</v>
@@ -23520,7 +23493,7 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B123">
         <v>2030</v>
@@ -23531,7 +23504,7 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B124">
         <v>2035</v>
@@ -23542,7 +23515,7 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B125">
         <v>2040</v>
@@ -23553,7 +23526,7 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B126">
         <v>2045</v>
@@ -23564,7 +23537,7 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B127">
         <v>2050</v>
@@ -23575,7 +23548,7 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B128">
         <v>2010</v>
@@ -23586,7 +23559,7 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B129">
         <v>2015</v>
@@ -23597,7 +23570,7 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B130">
         <v>2020</v>
@@ -23608,7 +23581,7 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B131">
         <v>2025</v>
@@ -23619,7 +23592,7 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B132">
         <v>2030</v>
@@ -23630,7 +23603,7 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B133">
         <v>2035</v>
@@ -23641,7 +23614,7 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B134">
         <v>2040</v>
@@ -23652,7 +23625,7 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B135">
         <v>2045</v>
@@ -23663,7 +23636,7 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B136">
         <v>2050</v>
@@ -23674,7 +23647,7 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B137">
         <v>2010</v>
@@ -23685,7 +23658,7 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B138">
         <v>2015</v>
@@ -23696,7 +23669,7 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B139">
         <v>2020</v>
@@ -23707,7 +23680,7 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B140">
         <v>2025</v>
@@ -23718,7 +23691,7 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B141">
         <v>2030</v>
@@ -23729,7 +23702,7 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B142">
         <v>2035</v>
@@ -23740,7 +23713,7 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B143">
         <v>2040</v>
@@ -23751,7 +23724,7 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B144">
         <v>2045</v>
@@ -23762,7 +23735,7 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B145">
         <v>2050</v>
@@ -23773,7 +23746,7 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B146">
         <v>2010</v>
@@ -23784,7 +23757,7 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B147">
         <v>2015</v>
@@ -23795,7 +23768,7 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B148">
         <v>2020</v>
@@ -23806,7 +23779,7 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B149">
         <v>2025</v>
@@ -23817,7 +23790,7 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B150">
         <v>2030</v>
@@ -23828,7 +23801,7 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B151">
         <v>2035</v>
@@ -23839,7 +23812,7 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B152">
         <v>2040</v>
@@ -23850,7 +23823,7 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B153">
         <v>2045</v>
@@ -23861,7 +23834,7 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B154">
         <v>2050</v>
@@ -23872,7 +23845,7 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B155">
         <v>2010</v>
@@ -23883,7 +23856,7 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B156">
         <v>2015</v>
@@ -23894,7 +23867,7 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B157">
         <v>2020</v>
@@ -23905,7 +23878,7 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B158">
         <v>2025</v>
@@ -23916,7 +23889,7 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B159">
         <v>2030</v>
@@ -23927,7 +23900,7 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B160">
         <v>2035</v>
@@ -23938,7 +23911,7 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B161">
         <v>2040</v>
@@ -23949,7 +23922,7 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B162">
         <v>2045</v>
@@ -23960,7 +23933,7 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B163">
         <v>2050</v>
@@ -23971,7 +23944,7 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B164">
         <v>2010</v>
@@ -23982,7 +23955,7 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B165">
         <v>2015</v>
@@ -23993,7 +23966,7 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B166">
         <v>2020</v>
@@ -24004,7 +23977,7 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B167">
         <v>2025</v>
@@ -24015,7 +23988,7 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B168">
         <v>2030</v>
@@ -24026,7 +23999,7 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B169">
         <v>2035</v>
@@ -24037,7 +24010,7 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B170">
         <v>2040</v>
@@ -24048,7 +24021,7 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B171">
         <v>2045</v>
@@ -24059,7 +24032,7 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B172">
         <v>2050</v>
@@ -24070,7 +24043,7 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B173">
         <v>2010</v>
@@ -24081,7 +24054,7 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B174">
         <v>2015</v>
@@ -24092,7 +24065,7 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B175">
         <v>2020</v>
@@ -24103,7 +24076,7 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B176">
         <v>2025</v>
@@ -24114,7 +24087,7 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B177">
         <v>2030</v>
@@ -24125,7 +24098,7 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B178">
         <v>2035</v>
@@ -24136,7 +24109,7 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B179">
         <v>2040</v>
@@ -24147,7 +24120,7 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B180">
         <v>2045</v>
@@ -24158,7 +24131,7 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B181">
         <v>2050</v>
@@ -24169,7 +24142,7 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B182">
         <v>2010</v>
@@ -24180,7 +24153,7 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B183">
         <v>2015</v>
@@ -24191,7 +24164,7 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B184">
         <v>2020</v>
@@ -24202,7 +24175,7 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B185">
         <v>2025</v>
@@ -24213,7 +24186,7 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B186">
         <v>2030</v>
@@ -24224,7 +24197,7 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B187">
         <v>2035</v>
@@ -24235,7 +24208,7 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B188">
         <v>2040</v>
@@ -24246,7 +24219,7 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B189">
         <v>2045</v>
@@ -24257,7 +24230,7 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B190">
         <v>2050</v>
@@ -24268,7 +24241,7 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B191">
         <v>2010</v>
@@ -24279,7 +24252,7 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B192">
         <v>2015</v>
@@ -24290,7 +24263,7 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B193">
         <v>2020</v>
@@ -24301,7 +24274,7 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B194">
         <v>2025</v>
@@ -24312,7 +24285,7 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B195">
         <v>2030</v>
@@ -24323,7 +24296,7 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B196">
         <v>2035</v>
@@ -24334,7 +24307,7 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B197">
         <v>2040</v>
@@ -24345,7 +24318,7 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B198">
         <v>2045</v>
@@ -24356,7 +24329,7 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B199">
         <v>2050</v>
@@ -24466,7 +24439,7 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B209">
         <v>2010</v>
@@ -24477,7 +24450,7 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B210">
         <v>2015</v>
@@ -24488,7 +24461,7 @@
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B211">
         <v>2020</v>
@@ -24499,7 +24472,7 @@
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B212">
         <v>2025</v>
@@ -24510,7 +24483,7 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B213">
         <v>2030</v>
@@ -24521,7 +24494,7 @@
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B214">
         <v>2035</v>
@@ -24532,7 +24505,7 @@
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B215">
         <v>2040</v>
@@ -24543,7 +24516,7 @@
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B216">
         <v>2045</v>
@@ -24554,7 +24527,7 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B217">
         <v>2050</v>
@@ -24664,7 +24637,7 @@
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B227">
         <v>2010</v>
@@ -24675,7 +24648,7 @@
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B228">
         <v>2015</v>
@@ -24686,7 +24659,7 @@
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B229">
         <v>2020</v>
@@ -24697,7 +24670,7 @@
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B230">
         <v>2025</v>
@@ -24708,7 +24681,7 @@
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B231">
         <v>2030</v>
@@ -24719,7 +24692,7 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B232">
         <v>2035</v>
@@ -24730,7 +24703,7 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B233">
         <v>2040</v>
@@ -24741,7 +24714,7 @@
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B234">
         <v>2045</v>
@@ -24752,7 +24725,7 @@
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B235">
         <v>2050</v>
@@ -24763,7 +24736,7 @@
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B236">
         <v>2010</v>
@@ -24774,7 +24747,7 @@
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B237">
         <v>2015</v>
@@ -24785,7 +24758,7 @@
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B238">
         <v>2020</v>
@@ -24796,7 +24769,7 @@
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B239">
         <v>2025</v>
@@ -24807,7 +24780,7 @@
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B240">
         <v>2030</v>
@@ -24818,7 +24791,7 @@
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B241">
         <v>2035</v>
@@ -24829,7 +24802,7 @@
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B242">
         <v>2040</v>
@@ -24840,7 +24813,7 @@
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B243">
         <v>2045</v>
@@ -24851,7 +24824,7 @@
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B244">
         <v>2050</v>
@@ -24862,7 +24835,7 @@
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B245">
         <v>2010</v>
@@ -24873,7 +24846,7 @@
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B246">
         <v>2015</v>
@@ -24884,7 +24857,7 @@
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B247">
         <v>2020</v>
@@ -24895,7 +24868,7 @@
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B248">
         <v>2025</v>
@@ -24906,7 +24879,7 @@
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B249">
         <v>2030</v>
@@ -24917,7 +24890,7 @@
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B250">
         <v>2035</v>
@@ -24928,7 +24901,7 @@
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B251">
         <v>2040</v>
@@ -24939,7 +24912,7 @@
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B252">
         <v>2045</v>
@@ -24950,7 +24923,7 @@
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B253">
         <v>2050</v>
@@ -24961,7 +24934,7 @@
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B254">
         <v>2010</v>
@@ -24972,7 +24945,7 @@
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B255">
         <v>2015</v>
@@ -24983,7 +24956,7 @@
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B256">
         <v>2020</v>
@@ -24994,7 +24967,7 @@
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B257">
         <v>2025</v>
@@ -25005,7 +24978,7 @@
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B258">
         <v>2030</v>
@@ -25016,7 +24989,7 @@
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B259">
         <v>2035</v>
@@ -25027,7 +25000,7 @@
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B260">
         <v>2040</v>
@@ -25038,7 +25011,7 @@
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B261">
         <v>2045</v>
@@ -25049,7 +25022,7 @@
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B262">
         <v>2050</v>
@@ -25060,7 +25033,7 @@
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B263">
         <v>2010</v>
@@ -25071,7 +25044,7 @@
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B264">
         <v>2015</v>
@@ -25082,7 +25055,7 @@
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B265">
         <v>2020</v>
@@ -25093,7 +25066,7 @@
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B266">
         <v>2025</v>
@@ -25104,7 +25077,7 @@
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B267">
         <v>2030</v>
@@ -25115,7 +25088,7 @@
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B268">
         <v>2035</v>
@@ -25126,7 +25099,7 @@
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B269">
         <v>2040</v>
@@ -25137,7 +25110,7 @@
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B270">
         <v>2045</v>
@@ -25148,7 +25121,7 @@
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B271">
         <v>2050</v>
@@ -25159,7 +25132,7 @@
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B272">
         <v>2010</v>
@@ -25170,7 +25143,7 @@
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B273">
         <v>2015</v>
@@ -25181,7 +25154,7 @@
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B274">
         <v>2020</v>
@@ -25192,7 +25165,7 @@
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B275">
         <v>2025</v>
@@ -25203,7 +25176,7 @@
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B276">
         <v>2030</v>
@@ -25214,7 +25187,7 @@
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B277">
         <v>2035</v>
@@ -25225,7 +25198,7 @@
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B278">
         <v>2040</v>
@@ -25236,7 +25209,7 @@
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B279">
         <v>2045</v>
@@ -25247,7 +25220,7 @@
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B280">
         <v>2050</v>
@@ -25258,7 +25231,7 @@
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B281">
         <v>2010</v>
@@ -25269,7 +25242,7 @@
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B282">
         <v>2015</v>
@@ -25280,7 +25253,7 @@
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B283">
         <v>2020</v>
@@ -25291,7 +25264,7 @@
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B284">
         <v>2025</v>
@@ -25302,7 +25275,7 @@
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B285">
         <v>2030</v>
@@ -25313,7 +25286,7 @@
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B286">
         <v>2035</v>
@@ -25324,7 +25297,7 @@
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B287">
         <v>2040</v>
@@ -25335,7 +25308,7 @@
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B288">
         <v>2045</v>
@@ -25346,7 +25319,7 @@
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B289">
         <v>2050</v>
@@ -25357,7 +25330,7 @@
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B290">
         <v>2010</v>
@@ -25368,7 +25341,7 @@
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B291">
         <v>2015</v>
@@ -25379,7 +25352,7 @@
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B292">
         <v>2020</v>
@@ -25390,7 +25363,7 @@
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B293">
         <v>2025</v>
@@ -25401,7 +25374,7 @@
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B294">
         <v>2030</v>
@@ -25412,7 +25385,7 @@
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B295">
         <v>2035</v>
@@ -25423,7 +25396,7 @@
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B296">
         <v>2040</v>
@@ -25434,7 +25407,7 @@
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B297">
         <v>2045</v>
@@ -25445,7 +25418,7 @@
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B298">
         <v>2050</v>
@@ -25456,7 +25429,7 @@
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B299">
         <v>2010</v>
@@ -25467,7 +25440,7 @@
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B300">
         <v>2015</v>
@@ -25478,7 +25451,7 @@
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B301">
         <v>2020</v>
@@ -25489,7 +25462,7 @@
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B302">
         <v>2025</v>
@@ -25500,7 +25473,7 @@
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B303">
         <v>2030</v>
@@ -25511,7 +25484,7 @@
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B304">
         <v>2035</v>
@@ -25522,7 +25495,7 @@
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B305">
         <v>2040</v>
@@ -25533,7 +25506,7 @@
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B306">
         <v>2045</v>
@@ -25544,7 +25517,7 @@
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B307">
         <v>2050</v>
@@ -25555,7 +25528,7 @@
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B308">
         <v>2010</v>
@@ -25566,7 +25539,7 @@
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B309">
         <v>2015</v>
@@ -25577,7 +25550,7 @@
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B310">
         <v>2020</v>
@@ -25588,7 +25561,7 @@
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B311">
         <v>2025</v>
@@ -25599,7 +25572,7 @@
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B312">
         <v>2030</v>
@@ -25610,7 +25583,7 @@
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B313">
         <v>2035</v>
@@ -25621,7 +25594,7 @@
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B314">
         <v>2040</v>
@@ -25632,7 +25605,7 @@
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B315">
         <v>2045</v>
@@ -25643,7 +25616,7 @@
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B316">
         <v>2050</v>
@@ -25654,7 +25627,7 @@
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B317">
         <v>2010</v>
@@ -25665,7 +25638,7 @@
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B318">
         <v>2015</v>
@@ -25676,7 +25649,7 @@
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B319">
         <v>2020</v>
@@ -25687,7 +25660,7 @@
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B320">
         <v>2025</v>
@@ -25698,7 +25671,7 @@
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B321">
         <v>2030</v>
@@ -25709,7 +25682,7 @@
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B322">
         <v>2035</v>
@@ -25720,7 +25693,7 @@
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B323">
         <v>2040</v>
@@ -25731,7 +25704,7 @@
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B324">
         <v>2045</v>
@@ -25742,7 +25715,7 @@
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B325">
         <v>2050</v>
@@ -25753,7 +25726,7 @@
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B326">
         <v>2010</v>
@@ -25764,7 +25737,7 @@
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B327">
         <v>2015</v>
@@ -25775,7 +25748,7 @@
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B328">
         <v>2020</v>
@@ -25786,7 +25759,7 @@
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B329">
         <v>2025</v>
@@ -25797,7 +25770,7 @@
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B330">
         <v>2030</v>
@@ -25808,7 +25781,7 @@
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B331">
         <v>2035</v>
@@ -25819,7 +25792,7 @@
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B332">
         <v>2040</v>
@@ -25830,7 +25803,7 @@
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B333">
         <v>2045</v>
@@ -25841,7 +25814,7 @@
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B334">
         <v>2050</v>
@@ -25852,7 +25825,7 @@
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B335">
         <v>2010</v>
@@ -25863,7 +25836,7 @@
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B336">
         <v>2015</v>
@@ -25874,7 +25847,7 @@
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B337">
         <v>2020</v>
@@ -25885,7 +25858,7 @@
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B338">
         <v>2025</v>
@@ -25896,7 +25869,7 @@
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B339">
         <v>2030</v>
@@ -25907,7 +25880,7 @@
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B340">
         <v>2035</v>
@@ -25918,7 +25891,7 @@
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B341">
         <v>2040</v>
@@ -25929,7 +25902,7 @@
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B342">
         <v>2045</v>
@@ -25940,7 +25913,7 @@
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B343">
         <v>2050</v>
@@ -25951,7 +25924,7 @@
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B344">
         <v>2010</v>
@@ -25962,7 +25935,7 @@
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B345">
         <v>2015</v>
@@ -25973,7 +25946,7 @@
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B346">
         <v>2020</v>
@@ -25984,7 +25957,7 @@
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B347">
         <v>2025</v>
@@ -25995,7 +25968,7 @@
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B348">
         <v>2030</v>
@@ -26006,7 +25979,7 @@
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B349">
         <v>2035</v>
@@ -26017,7 +25990,7 @@
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B350">
         <v>2040</v>
@@ -26028,7 +26001,7 @@
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B351">
         <v>2045</v>
@@ -26039,7 +26012,7 @@
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B352">
         <v>2050</v>
@@ -26050,7 +26023,7 @@
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B353">
         <v>2010</v>
@@ -26061,7 +26034,7 @@
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B354">
         <v>2015</v>
@@ -26072,7 +26045,7 @@
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B355">
         <v>2020</v>
@@ -26083,7 +26056,7 @@
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B356">
         <v>2025</v>
@@ -26094,7 +26067,7 @@
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B357">
         <v>2030</v>
@@ -26105,7 +26078,7 @@
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B358">
         <v>2035</v>
@@ -26116,7 +26089,7 @@
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B359">
         <v>2040</v>
@@ -26127,7 +26100,7 @@
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B360">
         <v>2045</v>
@@ -26138,7 +26111,7 @@
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B361">
         <v>2050</v>
@@ -26248,7 +26221,7 @@
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B371">
         <v>2010</v>
@@ -26259,7 +26232,7 @@
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B372">
         <v>2015</v>
@@ -26270,7 +26243,7 @@
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B373">
         <v>2020</v>
@@ -26281,7 +26254,7 @@
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B374">
         <v>2025</v>
@@ -26292,7 +26265,7 @@
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B375">
         <v>2030</v>
@@ -26303,7 +26276,7 @@
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B376">
         <v>2035</v>
@@ -26314,7 +26287,7 @@
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B377">
         <v>2040</v>
@@ -26325,7 +26298,7 @@
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B378">
         <v>2045</v>
@@ -26336,7 +26309,7 @@
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B379">
         <v>2050</v>
@@ -26347,7 +26320,7 @@
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B380">
         <v>2010</v>
@@ -26358,7 +26331,7 @@
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B381">
         <v>2015</v>
@@ -26369,7 +26342,7 @@
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B382">
         <v>2020</v>
@@ -26380,7 +26353,7 @@
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B383">
         <v>2025</v>
@@ -26391,7 +26364,7 @@
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B384">
         <v>2030</v>
@@ -26402,7 +26375,7 @@
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B385">
         <v>2035</v>
@@ -26413,7 +26386,7 @@
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B386">
         <v>2040</v>
@@ -26424,7 +26397,7 @@
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B387">
         <v>2045</v>
@@ -26435,7 +26408,7 @@
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B388">
         <v>2050</v>
@@ -26446,7 +26419,7 @@
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B389">
         <v>2010</v>
@@ -26457,7 +26430,7 @@
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B390">
         <v>2015</v>
@@ -26468,7 +26441,7 @@
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B391">
         <v>2020</v>
@@ -26479,7 +26452,7 @@
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B392">
         <v>2025</v>
@@ -26490,7 +26463,7 @@
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B393">
         <v>2030</v>
@@ -26501,7 +26474,7 @@
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B394">
         <v>2035</v>
@@ -26512,7 +26485,7 @@
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B395">
         <v>2040</v>
@@ -26523,7 +26496,7 @@
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B396">
         <v>2045</v>
@@ -26534,7 +26507,7 @@
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B397">
         <v>2050</v>
@@ -26545,7 +26518,7 @@
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B398">
         <v>2010</v>
@@ -26556,7 +26529,7 @@
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B399">
         <v>2015</v>
@@ -26567,7 +26540,7 @@
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B400">
         <v>2020</v>
@@ -26578,7 +26551,7 @@
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B401">
         <v>2025</v>
@@ -26589,7 +26562,7 @@
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B402">
         <v>2030</v>
@@ -26600,7 +26573,7 @@
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B403">
         <v>2035</v>
@@ -26611,7 +26584,7 @@
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B404">
         <v>2040</v>
@@ -26622,7 +26595,7 @@
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B405">
         <v>2045</v>
@@ -26633,7 +26606,7 @@
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B406">
         <v>2050</v>
@@ -26644,7 +26617,7 @@
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B407">
         <v>2010</v>
@@ -26655,7 +26628,7 @@
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B408">
         <v>2015</v>
@@ -26666,7 +26639,7 @@
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B409">
         <v>2020</v>
@@ -26677,7 +26650,7 @@
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B410">
         <v>2025</v>
@@ -26688,7 +26661,7 @@
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B411">
         <v>2030</v>
@@ -26699,7 +26672,7 @@
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B412">
         <v>2035</v>
@@ -26710,7 +26683,7 @@
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B413">
         <v>2040</v>
@@ -26721,7 +26694,7 @@
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B414">
         <v>2045</v>
@@ -26732,7 +26705,7 @@
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B415">
         <v>2050</v>
@@ -26743,7 +26716,7 @@
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B416">
         <v>2010</v>
@@ -26754,7 +26727,7 @@
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B417">
         <v>2015</v>
@@ -26765,7 +26738,7 @@
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B418">
         <v>2020</v>
@@ -26776,7 +26749,7 @@
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B419">
         <v>2025</v>
@@ -26787,7 +26760,7 @@
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B420">
         <v>2030</v>
@@ -26798,7 +26771,7 @@
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B421">
         <v>2035</v>
@@ -26809,7 +26782,7 @@
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B422">
         <v>2040</v>
@@ -26820,7 +26793,7 @@
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B423">
         <v>2045</v>
@@ -26831,7 +26804,7 @@
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B424">
         <v>2050</v>
@@ -26842,7 +26815,7 @@
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B425">
         <v>2010</v>
@@ -26853,7 +26826,7 @@
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B426">
         <v>2015</v>
@@ -26864,7 +26837,7 @@
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B427">
         <v>2020</v>
@@ -26875,7 +26848,7 @@
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B428">
         <v>2025</v>
@@ -26886,7 +26859,7 @@
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B429">
         <v>2030</v>
@@ -26897,7 +26870,7 @@
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B430">
         <v>2035</v>
@@ -26908,7 +26881,7 @@
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B431">
         <v>2040</v>
@@ -26919,7 +26892,7 @@
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B432">
         <v>2045</v>
@@ -26930,7 +26903,7 @@
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B433">
         <v>2050</v>
@@ -26941,7 +26914,7 @@
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B434">
         <v>2010</v>
@@ -26952,7 +26925,7 @@
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B435">
         <v>2015</v>
@@ -26963,7 +26936,7 @@
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B436">
         <v>2020</v>
@@ -26974,7 +26947,7 @@
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B437">
         <v>2025</v>
@@ -26985,7 +26958,7 @@
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B438">
         <v>2030</v>
@@ -26996,7 +26969,7 @@
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B439">
         <v>2035</v>
@@ -27007,7 +26980,7 @@
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B440">
         <v>2040</v>
@@ -27018,7 +26991,7 @@
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B441">
         <v>2045</v>
@@ -27029,7 +27002,7 @@
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B442">
         <v>2050</v>
@@ -27040,7 +27013,7 @@
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B443">
         <v>2010</v>
@@ -27051,7 +27024,7 @@
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B444">
         <v>2015</v>
@@ -27062,7 +27035,7 @@
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B445">
         <v>2020</v>
@@ -27073,7 +27046,7 @@
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B446">
         <v>2025</v>
@@ -27084,7 +27057,7 @@
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B447">
         <v>2030</v>
@@ -27095,7 +27068,7 @@
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B448">
         <v>2035</v>
@@ -27106,7 +27079,7 @@
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B449">
         <v>2040</v>
@@ -27117,7 +27090,7 @@
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B450">
         <v>2045</v>
@@ -27128,7 +27101,7 @@
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B451">
         <v>2050</v>
@@ -27139,7 +27112,7 @@
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B452">
         <v>2010</v>
@@ -27150,7 +27123,7 @@
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B453">
         <v>2015</v>
@@ -27161,7 +27134,7 @@
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B454">
         <v>2020</v>
@@ -27172,7 +27145,7 @@
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B455">
         <v>2025</v>
@@ -27183,7 +27156,7 @@
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B456">
         <v>2030</v>
@@ -27194,7 +27167,7 @@
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B457">
         <v>2035</v>
@@ -27205,7 +27178,7 @@
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B458">
         <v>2040</v>
@@ -27216,7 +27189,7 @@
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B459">
         <v>2045</v>
@@ -27227,7 +27200,7 @@
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B460">
         <v>2050</v>
@@ -27238,7 +27211,7 @@
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B461">
         <v>2010</v>
@@ -27249,7 +27222,7 @@
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B462">
         <v>2015</v>
@@ -27260,7 +27233,7 @@
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B463">
         <v>2020</v>
@@ -27271,7 +27244,7 @@
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B464">
         <v>2025</v>
@@ -27282,7 +27255,7 @@
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B465">
         <v>2030</v>
@@ -27293,7 +27266,7 @@
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B466">
         <v>2035</v>
@@ -27304,7 +27277,7 @@
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B467">
         <v>2040</v>
@@ -27315,7 +27288,7 @@
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B468">
         <v>2045</v>
@@ -27326,7 +27299,7 @@
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B469">
         <v>2050</v>
@@ -27337,7 +27310,7 @@
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B470">
         <v>2010</v>
@@ -27348,7 +27321,7 @@
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B471">
         <v>2015</v>
@@ -27359,7 +27332,7 @@
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B472">
         <v>2020</v>
@@ -27370,7 +27343,7 @@
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B473">
         <v>2025</v>
@@ -27381,7 +27354,7 @@
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B474">
         <v>2030</v>
@@ -27392,7 +27365,7 @@
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B475">
         <v>2035</v>
@@ -27403,7 +27376,7 @@
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B476">
         <v>2040</v>
@@ -27414,7 +27387,7 @@
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B477">
         <v>2045</v>
@@ -27425,7 +27398,7 @@
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B478">
         <v>2050</v>
@@ -27436,7 +27409,7 @@
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B479">
         <v>2010</v>
@@ -27447,7 +27420,7 @@
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B480">
         <v>2015</v>
@@ -27458,7 +27431,7 @@
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B481">
         <v>2020</v>
@@ -27469,7 +27442,7 @@
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B482">
         <v>2025</v>
@@ -27480,7 +27453,7 @@
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B483">
         <v>2030</v>
@@ -27491,7 +27464,7 @@
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B484">
         <v>2035</v>
@@ -27502,7 +27475,7 @@
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B485">
         <v>2040</v>
@@ -27513,7 +27486,7 @@
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B486">
         <v>2045</v>
@@ -27524,7 +27497,7 @@
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B487">
         <v>2050</v>
@@ -27535,7 +27508,7 @@
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B488">
         <v>2010</v>
@@ -27546,7 +27519,7 @@
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B489">
         <v>2015</v>
@@ -27557,7 +27530,7 @@
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B490">
         <v>2020</v>
@@ -27568,7 +27541,7 @@
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B491">
         <v>2025</v>
@@ -27579,7 +27552,7 @@
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B492">
         <v>2030</v>
@@ -27590,7 +27563,7 @@
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B493">
         <v>2035</v>
@@ -27601,7 +27574,7 @@
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B494">
         <v>2040</v>
@@ -27612,7 +27585,7 @@
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B495">
         <v>2045</v>
@@ -27623,7 +27596,7 @@
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B496">
         <v>2050</v>
@@ -27634,7 +27607,7 @@
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B497">
         <v>2010</v>
@@ -27645,7 +27618,7 @@
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B498">
         <v>2015</v>
@@ -27656,7 +27629,7 @@
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B499">
         <v>2020</v>
@@ -27667,7 +27640,7 @@
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B500">
         <v>2025</v>
@@ -27678,7 +27651,7 @@
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B501">
         <v>2030</v>
@@ -27689,7 +27662,7 @@
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B502">
         <v>2035</v>
@@ -27700,7 +27673,7 @@
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B503">
         <v>2040</v>
@@ -27711,7 +27684,7 @@
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B504">
         <v>2045</v>
@@ -27722,7 +27695,7 @@
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B505">
         <v>2050</v>
@@ -27733,7 +27706,7 @@
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B506">
         <v>2010</v>
@@ -27744,7 +27717,7 @@
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B507">
         <v>2015</v>
@@ -27755,7 +27728,7 @@
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B508">
         <v>2020</v>
@@ -27766,7 +27739,7 @@
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B509">
         <v>2025</v>
@@ -27777,7 +27750,7 @@
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B510">
         <v>2030</v>
@@ -27788,7 +27761,7 @@
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B511">
         <v>2035</v>
@@ -27799,7 +27772,7 @@
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B512">
         <v>2040</v>
@@ -27810,7 +27783,7 @@
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B513">
         <v>2045</v>
@@ -27821,7 +27794,7 @@
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B514">
         <v>2050</v>
@@ -27832,7 +27805,7 @@
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B515">
         <v>2010</v>
@@ -27843,7 +27816,7 @@
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B516">
         <v>2015</v>
@@ -27854,7 +27827,7 @@
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B517">
         <v>2020</v>
@@ -27865,7 +27838,7 @@
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B518">
         <v>2025</v>
@@ -27876,7 +27849,7 @@
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B519">
         <v>2030</v>
@@ -27887,7 +27860,7 @@
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B520">
         <v>2035</v>
@@ -27898,7 +27871,7 @@
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B521">
         <v>2040</v>
@@ -27909,7 +27882,7 @@
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B522">
         <v>2045</v>
@@ -27920,7 +27893,7 @@
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B523">
         <v>2050</v>
@@ -27931,7 +27904,7 @@
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B524">
         <v>2010</v>
@@ -27942,7 +27915,7 @@
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B525">
         <v>2015</v>
@@ -27953,7 +27926,7 @@
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B526">
         <v>2020</v>
@@ -27964,7 +27937,7 @@
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B527">
         <v>2025</v>
@@ -27975,7 +27948,7 @@
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B528">
         <v>2030</v>
@@ -27986,7 +27959,7 @@
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B529">
         <v>2035</v>
@@ -27997,7 +27970,7 @@
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B530">
         <v>2040</v>
@@ -28008,7 +27981,7 @@
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B531">
         <v>2045</v>
@@ -28019,7 +27992,7 @@
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B532">
         <v>2050</v>
@@ -28030,7 +28003,7 @@
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B533">
         <v>2010</v>
@@ -28041,7 +28014,7 @@
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B534">
         <v>2015</v>
@@ -28052,7 +28025,7 @@
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B535">
         <v>2020</v>
@@ -28063,7 +28036,7 @@
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B536">
         <v>2025</v>
@@ -28074,7 +28047,7 @@
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B537">
         <v>2030</v>
@@ -28085,7 +28058,7 @@
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B538">
         <v>2035</v>
@@ -28096,7 +28069,7 @@
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B539">
         <v>2040</v>
@@ -28107,7 +28080,7 @@
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B540">
         <v>2045</v>
@@ -28118,7 +28091,7 @@
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B541">
         <v>2050</v>
@@ -28129,7 +28102,7 @@
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B542">
         <v>2010</v>
@@ -28140,7 +28113,7 @@
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B543">
         <v>2015</v>
@@ -28151,7 +28124,7 @@
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B544">
         <v>2020</v>
@@ -28162,7 +28135,7 @@
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B545">
         <v>2025</v>
@@ -28173,7 +28146,7 @@
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B546">
         <v>2030</v>
@@ -28184,7 +28157,7 @@
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B547">
         <v>2035</v>
@@ -28195,7 +28168,7 @@
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B548">
         <v>2040</v>
@@ -28206,7 +28179,7 @@
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B549">
         <v>2045</v>
@@ -28217,7 +28190,7 @@
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B550">
         <v>2050</v>
@@ -28228,7 +28201,7 @@
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B551">
         <v>2010</v>
@@ -28239,7 +28212,7 @@
     </row>
     <row r="552" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B552">
         <v>2015</v>
@@ -28250,7 +28223,7 @@
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B553">
         <v>2020</v>
@@ -28261,7 +28234,7 @@
     </row>
     <row r="554" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B554">
         <v>2025</v>
@@ -28272,7 +28245,7 @@
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B555">
         <v>2030</v>
@@ -28283,7 +28256,7 @@
     </row>
     <row r="556" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B556">
         <v>2035</v>
@@ -28294,7 +28267,7 @@
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B557">
         <v>2040</v>
@@ -28305,7 +28278,7 @@
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B558">
         <v>2045</v>
@@ -28316,7 +28289,7 @@
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B559">
         <v>2050</v>
@@ -28327,7 +28300,7 @@
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B560">
         <v>2010</v>
@@ -28338,7 +28311,7 @@
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B561">
         <v>2015</v>
@@ -28349,7 +28322,7 @@
     </row>
     <row r="562" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B562">
         <v>2020</v>
@@ -28360,7 +28333,7 @@
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B563">
         <v>2025</v>
@@ -28371,7 +28344,7 @@
     </row>
     <row r="564" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B564">
         <v>2030</v>
@@ -28382,7 +28355,7 @@
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B565">
         <v>2035</v>
@@ -28393,7 +28366,7 @@
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B566">
         <v>2040</v>
@@ -28404,7 +28377,7 @@
     </row>
     <row r="567" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B567">
         <v>2045</v>
@@ -28415,7 +28388,7 @@
     </row>
     <row r="568" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B568">
         <v>2050</v>
@@ -28426,7 +28399,7 @@
     </row>
     <row r="569" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B569">
         <v>2010</v>
@@ -28437,7 +28410,7 @@
     </row>
     <row r="570" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B570">
         <v>2015</v>
@@ -28448,7 +28421,7 @@
     </row>
     <row r="571" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B571">
         <v>2020</v>
@@ -28459,7 +28432,7 @@
     </row>
     <row r="572" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B572">
         <v>2025</v>
@@ -28470,7 +28443,7 @@
     </row>
     <row r="573" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B573">
         <v>2030</v>
@@ -28481,7 +28454,7 @@
     </row>
     <row r="574" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B574">
         <v>2035</v>
@@ -28492,7 +28465,7 @@
     </row>
     <row r="575" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B575">
         <v>2040</v>
@@ -28503,7 +28476,7 @@
     </row>
     <row r="576" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B576">
         <v>2045</v>
@@ -28514,7 +28487,7 @@
     </row>
     <row r="577" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B577">
         <v>2050</v>
@@ -28525,7 +28498,7 @@
     </row>
     <row r="578" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B578">
         <v>2010</v>
@@ -28536,7 +28509,7 @@
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B579">
         <v>2015</v>
@@ -28547,7 +28520,7 @@
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B580">
         <v>2020</v>
@@ -28558,7 +28531,7 @@
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B581">
         <v>2025</v>
@@ -28569,7 +28542,7 @@
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B582">
         <v>2030</v>
@@ -28580,7 +28553,7 @@
     </row>
     <row r="583" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B583">
         <v>2035</v>
@@ -28591,7 +28564,7 @@
     </row>
     <row r="584" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B584">
         <v>2040</v>
@@ -28602,7 +28575,7 @@
     </row>
     <row r="585" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B585">
         <v>2045</v>
@@ -28613,7 +28586,7 @@
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B586">
         <v>2050</v>
@@ -28624,7 +28597,7 @@
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B587">
         <v>2010</v>
@@ -28635,7 +28608,7 @@
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B588">
         <v>2015</v>
@@ -28646,7 +28619,7 @@
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B589">
         <v>2020</v>
@@ -28657,7 +28630,7 @@
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B590">
         <v>2025</v>
@@ -28668,7 +28641,7 @@
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B591">
         <v>2030</v>
@@ -28679,7 +28652,7 @@
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B592">
         <v>2035</v>
@@ -28690,7 +28663,7 @@
     </row>
     <row r="593" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B593">
         <v>2040</v>
@@ -28701,7 +28674,7 @@
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B594">
         <v>2045</v>
@@ -28712,7 +28685,7 @@
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B595">
         <v>2050</v>
@@ -28723,7 +28696,7 @@
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B596">
         <v>2010</v>
@@ -28734,7 +28707,7 @@
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B597">
         <v>2015</v>
@@ -28745,7 +28718,7 @@
     </row>
     <row r="598" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B598">
         <v>2020</v>
@@ -28756,7 +28729,7 @@
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B599">
         <v>2025</v>
@@ -28767,7 +28740,7 @@
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B600">
         <v>2030</v>
@@ -28778,7 +28751,7 @@
     </row>
     <row r="601" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B601">
         <v>2035</v>
@@ -28789,7 +28762,7 @@
     </row>
     <row r="602" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B602">
         <v>2040</v>
@@ -28800,7 +28773,7 @@
     </row>
     <row r="603" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B603">
         <v>2045</v>
@@ -28811,7 +28784,7 @@
     </row>
     <row r="604" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B604">
         <v>2050</v>
@@ -28822,7 +28795,7 @@
     </row>
     <row r="605" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B605">
         <v>2010</v>
@@ -28833,7 +28806,7 @@
     </row>
     <row r="606" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B606">
         <v>2015</v>
@@ -28844,7 +28817,7 @@
     </row>
     <row r="607" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B607">
         <v>2020</v>
@@ -28855,7 +28828,7 @@
     </row>
     <row r="608" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B608">
         <v>2025</v>
@@ -28866,7 +28839,7 @@
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B609">
         <v>2030</v>
@@ -28877,7 +28850,7 @@
     </row>
     <row r="610" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B610">
         <v>2035</v>
@@ -28888,7 +28861,7 @@
     </row>
     <row r="611" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B611">
         <v>2040</v>
@@ -28899,7 +28872,7 @@
     </row>
     <row r="612" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B612">
         <v>2045</v>
@@ -28910,7 +28883,7 @@
     </row>
     <row r="613" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B613">
         <v>2050</v>
@@ -28921,7 +28894,7 @@
     </row>
     <row r="614" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B614">
         <v>2010</v>
@@ -28932,7 +28905,7 @@
     </row>
     <row r="615" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B615">
         <v>2015</v>
@@ -28943,7 +28916,7 @@
     </row>
     <row r="616" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B616">
         <v>2020</v>
@@ -28954,7 +28927,7 @@
     </row>
     <row r="617" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B617">
         <v>2025</v>
@@ -28965,7 +28938,7 @@
     </row>
     <row r="618" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B618">
         <v>2030</v>
@@ -28976,7 +28949,7 @@
     </row>
     <row r="619" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B619">
         <v>2035</v>
@@ -28987,7 +28960,7 @@
     </row>
     <row r="620" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B620">
         <v>2040</v>
@@ -28998,7 +28971,7 @@
     </row>
     <row r="621" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B621">
         <v>2045</v>
@@ -29009,7 +28982,7 @@
     </row>
     <row r="622" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B622">
         <v>2050</v>
@@ -29020,7 +28993,7 @@
     </row>
     <row r="623" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B623">
         <v>2010</v>
@@ -29031,7 +29004,7 @@
     </row>
     <row r="624" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B624">
         <v>2015</v>
@@ -29042,7 +29015,7 @@
     </row>
     <row r="625" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B625">
         <v>2020</v>
@@ -29053,7 +29026,7 @@
     </row>
     <row r="626" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B626">
         <v>2025</v>
@@ -29064,7 +29037,7 @@
     </row>
     <row r="627" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B627">
         <v>2030</v>
@@ -29075,7 +29048,7 @@
     </row>
     <row r="628" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B628">
         <v>2035</v>
@@ -29086,7 +29059,7 @@
     </row>
     <row r="629" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B629">
         <v>2040</v>
@@ -29097,7 +29070,7 @@
     </row>
     <row r="630" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B630">
         <v>2045</v>
@@ -29108,7 +29081,7 @@
     </row>
     <row r="631" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B631">
         <v>2050</v>
@@ -29119,7 +29092,7 @@
     </row>
     <row r="632" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B632">
         <v>2010</v>
@@ -29130,7 +29103,7 @@
     </row>
     <row r="633" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B633">
         <v>2015</v>
@@ -29141,7 +29114,7 @@
     </row>
     <row r="634" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B634">
         <v>2020</v>
@@ -29152,7 +29125,7 @@
     </row>
     <row r="635" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B635">
         <v>2025</v>
@@ -29163,7 +29136,7 @@
     </row>
     <row r="636" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B636">
         <v>2030</v>
@@ -29174,7 +29147,7 @@
     </row>
     <row r="637" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B637">
         <v>2035</v>
@@ -29185,7 +29158,7 @@
     </row>
     <row r="638" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B638">
         <v>2040</v>
@@ -29196,7 +29169,7 @@
     </row>
     <row r="639" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B639">
         <v>2045</v>
@@ -29207,7 +29180,7 @@
     </row>
     <row r="640" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B640">
         <v>2050</v>
@@ -29218,7 +29191,7 @@
     </row>
     <row r="641" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B641">
         <v>2010</v>
@@ -29229,7 +29202,7 @@
     </row>
     <row r="642" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B642">
         <v>2015</v>
@@ -29240,7 +29213,7 @@
     </row>
     <row r="643" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B643">
         <v>2020</v>
@@ -29251,7 +29224,7 @@
     </row>
     <row r="644" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B644">
         <v>2025</v>
@@ -29262,7 +29235,7 @@
     </row>
     <row r="645" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B645">
         <v>2030</v>
@@ -29273,7 +29246,7 @@
     </row>
     <row r="646" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B646">
         <v>2035</v>
@@ -29284,7 +29257,7 @@
     </row>
     <row r="647" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B647">
         <v>2040</v>
@@ -29295,7 +29268,7 @@
     </row>
     <row r="648" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B648">
         <v>2045</v>
@@ -29306,7 +29279,7 @@
     </row>
     <row r="649" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B649">
         <v>2050</v>
@@ -29317,7 +29290,7 @@
     </row>
     <row r="650" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B650">
         <v>2010</v>
@@ -29328,7 +29301,7 @@
     </row>
     <row r="651" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B651">
         <v>2015</v>
@@ -29339,7 +29312,7 @@
     </row>
     <row r="652" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B652">
         <v>2020</v>
@@ -29350,7 +29323,7 @@
     </row>
     <row r="653" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B653">
         <v>2025</v>
@@ -29361,7 +29334,7 @@
     </row>
     <row r="654" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B654">
         <v>2030</v>
@@ -29372,7 +29345,7 @@
     </row>
     <row r="655" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B655">
         <v>2035</v>
@@ -29383,7 +29356,7 @@
     </row>
     <row r="656" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B656">
         <v>2040</v>
@@ -29394,7 +29367,7 @@
     </row>
     <row r="657" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B657">
         <v>2045</v>
@@ -29405,7 +29378,7 @@
     </row>
     <row r="658" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A658" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B658">
         <v>2050</v>
@@ -29416,7 +29389,7 @@
     </row>
     <row r="659" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B659">
         <v>2010</v>
@@ -29427,7 +29400,7 @@
     </row>
     <row r="660" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B660">
         <v>2015</v>
@@ -29438,7 +29411,7 @@
     </row>
     <row r="661" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B661">
         <v>2020</v>
@@ -29449,7 +29422,7 @@
     </row>
     <row r="662" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B662">
         <v>2025</v>
@@ -29460,7 +29433,7 @@
     </row>
     <row r="663" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B663">
         <v>2030</v>
@@ -29471,7 +29444,7 @@
     </row>
     <row r="664" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B664">
         <v>2035</v>
@@ -29482,7 +29455,7 @@
     </row>
     <row r="665" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B665">
         <v>2040</v>
@@ -29493,7 +29466,7 @@
     </row>
     <row r="666" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B666">
         <v>2045</v>
@@ -29504,7 +29477,7 @@
     </row>
     <row r="667" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B667">
         <v>2050</v>
@@ -29515,7 +29488,7 @@
     </row>
     <row r="668" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A668" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B668">
         <v>2010</v>
@@ -29526,7 +29499,7 @@
     </row>
     <row r="669" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A669" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B669">
         <v>2015</v>
@@ -29537,7 +29510,7 @@
     </row>
     <row r="670" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A670" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B670">
         <v>2020</v>
@@ -29548,7 +29521,7 @@
     </row>
     <row r="671" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A671" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B671">
         <v>2025</v>
@@ -29559,7 +29532,7 @@
     </row>
     <row r="672" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B672">
         <v>2030</v>
@@ -29570,7 +29543,7 @@
     </row>
     <row r="673" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B673">
         <v>2035</v>
@@ -29581,7 +29554,7 @@
     </row>
     <row r="674" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B674">
         <v>2040</v>
@@ -29592,7 +29565,7 @@
     </row>
     <row r="675" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A675" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B675">
         <v>2045</v>
@@ -29603,7 +29576,7 @@
     </row>
     <row r="676" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B676">
         <v>2050</v>
@@ -29614,7 +29587,7 @@
     </row>
     <row r="677" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A677" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B677">
         <v>2010</v>
@@ -29625,7 +29598,7 @@
     </row>
     <row r="678" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A678" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B678">
         <v>2015</v>
@@ -29636,7 +29609,7 @@
     </row>
     <row r="679" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A679" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B679">
         <v>2020</v>
@@ -29647,7 +29620,7 @@
     </row>
     <row r="680" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B680">
         <v>2025</v>
@@ -29658,7 +29631,7 @@
     </row>
     <row r="681" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B681">
         <v>2030</v>
@@ -29669,7 +29642,7 @@
     </row>
     <row r="682" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A682" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B682">
         <v>2035</v>
@@ -29680,7 +29653,7 @@
     </row>
     <row r="683" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B683">
         <v>2040</v>
@@ -29691,7 +29664,7 @@
     </row>
     <row r="684" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B684">
         <v>2045</v>
@@ -29702,7 +29675,7 @@
     </row>
     <row r="685" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A685" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B685">
         <v>2050</v>
@@ -29713,7 +29686,7 @@
     </row>
     <row r="686" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A686" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B686">
         <v>2010</v>
@@ -29724,7 +29697,7 @@
     </row>
     <row r="687" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A687" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B687">
         <v>2015</v>
@@ -29735,7 +29708,7 @@
     </row>
     <row r="688" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A688" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B688">
         <v>2020</v>
@@ -29746,7 +29719,7 @@
     </row>
     <row r="689" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A689" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B689">
         <v>2025</v>
@@ -29757,7 +29730,7 @@
     </row>
     <row r="690" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A690" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B690">
         <v>2030</v>
@@ -29768,7 +29741,7 @@
     </row>
     <row r="691" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A691" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B691">
         <v>2035</v>
@@ -29779,7 +29752,7 @@
     </row>
     <row r="692" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B692">
         <v>2040</v>
@@ -29790,7 +29763,7 @@
     </row>
     <row r="693" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A693" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B693">
         <v>2045</v>
@@ -29801,7 +29774,7 @@
     </row>
     <row r="694" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A694" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B694">
         <v>2050</v>
@@ -29812,7 +29785,7 @@
     </row>
     <row r="695" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A695" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B695">
         <v>2010</v>
@@ -29823,7 +29796,7 @@
     </row>
     <row r="696" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A696" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B696">
         <v>2015</v>
@@ -29834,7 +29807,7 @@
     </row>
     <row r="697" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A697" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B697">
         <v>2020</v>
@@ -29845,7 +29818,7 @@
     </row>
     <row r="698" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A698" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B698">
         <v>2025</v>
@@ -29856,7 +29829,7 @@
     </row>
     <row r="699" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A699" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B699">
         <v>2030</v>
@@ -29867,7 +29840,7 @@
     </row>
     <row r="700" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A700" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B700">
         <v>2035</v>
@@ -29878,7 +29851,7 @@
     </row>
     <row r="701" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A701" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B701">
         <v>2040</v>
@@ -29889,7 +29862,7 @@
     </row>
     <row r="702" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A702" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B702">
         <v>2045</v>
@@ -29900,7 +29873,7 @@
     </row>
     <row r="703" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A703" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B703">
         <v>2050</v>
@@ -29911,7 +29884,7 @@
     </row>
     <row r="704" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A704" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B704">
         <v>2010</v>
@@ -29922,7 +29895,7 @@
     </row>
     <row r="705" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A705" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B705">
         <v>2015</v>
@@ -29933,7 +29906,7 @@
     </row>
     <row r="706" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A706" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B706">
         <v>2020</v>
@@ -29944,7 +29917,7 @@
     </row>
     <row r="707" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A707" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B707">
         <v>2025</v>
@@ -29955,7 +29928,7 @@
     </row>
     <row r="708" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A708" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B708">
         <v>2030</v>
@@ -29966,7 +29939,7 @@
     </row>
     <row r="709" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A709" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B709">
         <v>2035</v>
@@ -29977,7 +29950,7 @@
     </row>
     <row r="710" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A710" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B710">
         <v>2040</v>
@@ -29988,7 +29961,7 @@
     </row>
     <row r="711" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A711" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B711">
         <v>2045</v>
@@ -29999,7 +29972,7 @@
     </row>
     <row r="712" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A712" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B712">
         <v>2050</v>
@@ -30010,7 +29983,7 @@
     </row>
     <row r="713" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A713" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B713">
         <v>2010</v>
@@ -30021,7 +29994,7 @@
     </row>
     <row r="714" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A714" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B714">
         <v>2015</v>
@@ -30032,7 +30005,7 @@
     </row>
     <row r="715" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A715" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B715">
         <v>2020</v>
@@ -30043,7 +30016,7 @@
     </row>
     <row r="716" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A716" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B716">
         <v>2025</v>
@@ -30054,7 +30027,7 @@
     </row>
     <row r="717" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A717" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B717">
         <v>2030</v>
@@ -30065,7 +30038,7 @@
     </row>
     <row r="718" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A718" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B718">
         <v>2035</v>
@@ -30076,7 +30049,7 @@
     </row>
     <row r="719" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A719" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B719">
         <v>2040</v>
@@ -30087,7 +30060,7 @@
     </row>
     <row r="720" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A720" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B720">
         <v>2045</v>
@@ -30098,7 +30071,7 @@
     </row>
     <row r="721" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A721" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B721">
         <v>2050</v>
@@ -30109,7 +30082,7 @@
     </row>
     <row r="722" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A722" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B722">
         <v>2010</v>
@@ -30120,7 +30093,7 @@
     </row>
     <row r="723" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A723" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B723">
         <v>2015</v>
@@ -30131,7 +30104,7 @@
     </row>
     <row r="724" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A724" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B724">
         <v>2020</v>
@@ -30142,7 +30115,7 @@
     </row>
     <row r="725" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A725" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B725">
         <v>2025</v>
@@ -30153,7 +30126,7 @@
     </row>
     <row r="726" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A726" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B726">
         <v>2030</v>
@@ -30164,7 +30137,7 @@
     </row>
     <row r="727" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A727" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B727">
         <v>2035</v>
@@ -30175,7 +30148,7 @@
     </row>
     <row r="728" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A728" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B728">
         <v>2040</v>
@@ -30186,7 +30159,7 @@
     </row>
     <row r="729" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A729" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B729">
         <v>2045</v>
@@ -30197,7 +30170,7 @@
     </row>
     <row r="730" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A730" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B730">
         <v>2050</v>
@@ -30208,7 +30181,7 @@
     </row>
     <row r="731" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A731" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B731">
         <v>2010</v>
@@ -30219,7 +30192,7 @@
     </row>
     <row r="732" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A732" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B732">
         <v>2015</v>
@@ -30230,7 +30203,7 @@
     </row>
     <row r="733" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A733" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B733">
         <v>2020</v>
@@ -30241,7 +30214,7 @@
     </row>
     <row r="734" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A734" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B734">
         <v>2025</v>
@@ -30252,7 +30225,7 @@
     </row>
     <row r="735" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A735" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B735">
         <v>2030</v>
@@ -30263,7 +30236,7 @@
     </row>
     <row r="736" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A736" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B736">
         <v>2035</v>
@@ -30274,7 +30247,7 @@
     </row>
     <row r="737" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A737" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B737">
         <v>2040</v>
@@ -30285,7 +30258,7 @@
     </row>
     <row r="738" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A738" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B738">
         <v>2045</v>
@@ -30296,7 +30269,7 @@
     </row>
     <row r="739" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A739" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B739">
         <v>2050</v>
@@ -30307,7 +30280,7 @@
     </row>
     <row r="740" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A740" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B740">
         <v>2010</v>
@@ -30318,7 +30291,7 @@
     </row>
     <row r="741" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A741" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B741">
         <v>2015</v>
@@ -30329,7 +30302,7 @@
     </row>
     <row r="742" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A742" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B742">
         <v>2020</v>
@@ -30340,7 +30313,7 @@
     </row>
     <row r="743" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A743" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B743">
         <v>2025</v>
@@ -30351,7 +30324,7 @@
     </row>
     <row r="744" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A744" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B744">
         <v>2030</v>
@@ -30362,7 +30335,7 @@
     </row>
     <row r="745" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A745" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B745">
         <v>2035</v>
@@ -30373,7 +30346,7 @@
     </row>
     <row r="746" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A746" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B746">
         <v>2040</v>
@@ -30384,7 +30357,7 @@
     </row>
     <row r="747" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A747" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B747">
         <v>2045</v>
@@ -30395,7 +30368,7 @@
     </row>
     <row r="748" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A748" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B748">
         <v>2050</v>
@@ -30406,7 +30379,7 @@
     </row>
     <row r="749" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A749" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B749">
         <v>2010</v>
@@ -30417,7 +30390,7 @@
     </row>
     <row r="750" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A750" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B750">
         <v>2015</v>
@@ -30428,7 +30401,7 @@
     </row>
     <row r="751" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A751" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B751">
         <v>2020</v>
@@ -30439,7 +30412,7 @@
     </row>
     <row r="752" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A752" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B752">
         <v>2025</v>
@@ -30450,7 +30423,7 @@
     </row>
     <row r="753" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A753" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B753">
         <v>2030</v>
@@ -30461,7 +30434,7 @@
     </row>
     <row r="754" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A754" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B754">
         <v>2035</v>
@@ -30472,7 +30445,7 @@
     </row>
     <row r="755" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A755" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B755">
         <v>2040</v>
@@ -30483,7 +30456,7 @@
     </row>
     <row r="756" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A756" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B756">
         <v>2045</v>
@@ -30494,7 +30467,7 @@
     </row>
     <row r="757" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A757" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B757">
         <v>2050</v>
@@ -30505,7 +30478,7 @@
     </row>
     <row r="758" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A758" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B758">
         <v>2010</v>
@@ -30516,7 +30489,7 @@
     </row>
     <row r="759" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A759" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B759">
         <v>2015</v>
@@ -30527,7 +30500,7 @@
     </row>
     <row r="760" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A760" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B760">
         <v>2020</v>
@@ -30538,7 +30511,7 @@
     </row>
     <row r="761" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A761" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B761">
         <v>2025</v>
@@ -30549,7 +30522,7 @@
     </row>
     <row r="762" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A762" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B762">
         <v>2030</v>
@@ -30560,7 +30533,7 @@
     </row>
     <row r="763" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A763" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B763">
         <v>2035</v>
@@ -30571,7 +30544,7 @@
     </row>
     <row r="764" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A764" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B764">
         <v>2040</v>
@@ -30582,7 +30555,7 @@
     </row>
     <row r="765" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A765" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B765">
         <v>2045</v>
@@ -30593,7 +30566,7 @@
     </row>
     <row r="766" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A766" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B766">
         <v>2050</v>
@@ -30802,7 +30775,7 @@
     </row>
     <row r="785" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A785" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B785">
         <v>2010</v>
@@ -30813,7 +30786,7 @@
     </row>
     <row r="786" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A786" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B786">
         <v>2015</v>
@@ -30824,7 +30797,7 @@
     </row>
     <row r="787" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A787" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B787">
         <v>2020</v>
@@ -30835,7 +30808,7 @@
     </row>
     <row r="788" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A788" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B788">
         <v>2025</v>
@@ -30846,7 +30819,7 @@
     </row>
     <row r="789" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A789" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B789">
         <v>2030</v>
@@ -30857,7 +30830,7 @@
     </row>
     <row r="790" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A790" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B790">
         <v>2035</v>
@@ -30868,7 +30841,7 @@
     </row>
     <row r="791" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A791" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B791">
         <v>2040</v>
@@ -30879,7 +30852,7 @@
     </row>
     <row r="792" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A792" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B792">
         <v>2045</v>
@@ -30890,7 +30863,7 @@
     </row>
     <row r="793" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A793" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B793">
         <v>2050</v>
@@ -30901,7 +30874,7 @@
     </row>
     <row r="794" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A794" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B794">
         <v>2010</v>
@@ -30912,7 +30885,7 @@
     </row>
     <row r="795" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A795" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B795">
         <v>2015</v>
@@ -30923,7 +30896,7 @@
     </row>
     <row r="796" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A796" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B796">
         <v>2020</v>
@@ -30934,7 +30907,7 @@
     </row>
     <row r="797" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A797" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B797">
         <v>2025</v>
@@ -30945,7 +30918,7 @@
     </row>
     <row r="798" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A798" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B798">
         <v>2030</v>
@@ -30956,7 +30929,7 @@
     </row>
     <row r="799" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A799" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B799">
         <v>2035</v>
@@ -30967,7 +30940,7 @@
     </row>
     <row r="800" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A800" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B800">
         <v>2040</v>
@@ -30978,7 +30951,7 @@
     </row>
     <row r="801" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A801" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B801">
         <v>2045</v>
@@ -30989,7 +30962,7 @@
     </row>
     <row r="802" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A802" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B802">
         <v>2050</v>
@@ -31000,7 +30973,7 @@
     </row>
     <row r="803" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A803" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B803">
         <v>2010</v>
@@ -31011,7 +30984,7 @@
     </row>
     <row r="804" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A804" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B804">
         <v>2015</v>
@@ -31022,7 +30995,7 @@
     </row>
     <row r="805" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A805" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B805">
         <v>2020</v>
@@ -31033,7 +31006,7 @@
     </row>
     <row r="806" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A806" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B806">
         <v>2025</v>
@@ -31044,7 +31017,7 @@
     </row>
     <row r="807" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A807" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B807">
         <v>2030</v>
@@ -31055,7 +31028,7 @@
     </row>
     <row r="808" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A808" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B808">
         <v>2035</v>
@@ -31066,7 +31039,7 @@
     </row>
     <row r="809" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A809" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B809">
         <v>2040</v>
@@ -31077,7 +31050,7 @@
     </row>
     <row r="810" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A810" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B810">
         <v>2045</v>
@@ -31088,7 +31061,7 @@
     </row>
     <row r="811" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A811" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B811">
         <v>2050</v>
@@ -31099,7 +31072,7 @@
     </row>
     <row r="812" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A812" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B812">
         <v>2010</v>
@@ -31110,7 +31083,7 @@
     </row>
     <row r="813" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A813" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B813">
         <v>2015</v>
@@ -31121,7 +31094,7 @@
     </row>
     <row r="814" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A814" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B814">
         <v>2020</v>
@@ -31132,7 +31105,7 @@
     </row>
     <row r="815" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A815" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B815">
         <v>2025</v>
@@ -31143,7 +31116,7 @@
     </row>
     <row r="816" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A816" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B816">
         <v>2030</v>
@@ -31154,7 +31127,7 @@
     </row>
     <row r="817" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A817" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B817">
         <v>2035</v>
@@ -31165,7 +31138,7 @@
     </row>
     <row r="818" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A818" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B818">
         <v>2040</v>
@@ -31176,7 +31149,7 @@
     </row>
     <row r="819" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A819" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B819">
         <v>2045</v>
@@ -31187,7 +31160,7 @@
     </row>
     <row r="820" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A820" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B820">
         <v>2050</v>
@@ -31198,7 +31171,7 @@
     </row>
     <row r="821" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A821" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B821">
         <v>2010</v>
@@ -31209,7 +31182,7 @@
     </row>
     <row r="822" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A822" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B822">
         <v>2015</v>
@@ -31220,7 +31193,7 @@
     </row>
     <row r="823" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A823" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B823">
         <v>2020</v>
@@ -31231,7 +31204,7 @@
     </row>
     <row r="824" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A824" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B824">
         <v>2025</v>
@@ -31242,7 +31215,7 @@
     </row>
     <row r="825" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A825" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B825">
         <v>2030</v>
@@ -31253,7 +31226,7 @@
     </row>
     <row r="826" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A826" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B826">
         <v>2035</v>
@@ -31264,7 +31237,7 @@
     </row>
     <row r="827" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A827" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B827">
         <v>2040</v>
@@ -31275,7 +31248,7 @@
     </row>
     <row r="828" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A828" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B828">
         <v>2045</v>
@@ -31286,7 +31259,7 @@
     </row>
     <row r="829" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A829" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B829">
         <v>2050</v>
@@ -31495,7 +31468,7 @@
     </row>
     <row r="848" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A848" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B848">
         <v>2010</v>
@@ -31506,7 +31479,7 @@
     </row>
     <row r="849" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A849" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B849">
         <v>2015</v>
@@ -31517,7 +31490,7 @@
     </row>
     <row r="850" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A850" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B850">
         <v>2020</v>
@@ -31528,7 +31501,7 @@
     </row>
     <row r="851" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A851" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B851">
         <v>2025</v>
@@ -31539,7 +31512,7 @@
     </row>
     <row r="852" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A852" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B852">
         <v>2030</v>
@@ -31550,7 +31523,7 @@
     </row>
     <row r="853" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A853" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B853">
         <v>2035</v>
@@ -31561,7 +31534,7 @@
     </row>
     <row r="854" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A854" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B854">
         <v>2040</v>
@@ -31572,7 +31545,7 @@
     </row>
     <row r="855" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A855" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B855">
         <v>2045</v>
@@ -31583,7 +31556,7 @@
     </row>
     <row r="856" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A856" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B856">
         <v>2050</v>
@@ -31594,7 +31567,7 @@
     </row>
     <row r="857" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A857" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B857">
         <v>2010</v>
@@ -31605,7 +31578,7 @@
     </row>
     <row r="858" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A858" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B858">
         <v>2015</v>
@@ -31616,7 +31589,7 @@
     </row>
     <row r="859" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A859" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B859">
         <v>2020</v>
@@ -31627,7 +31600,7 @@
     </row>
     <row r="860" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A860" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B860">
         <v>2025</v>
@@ -31638,7 +31611,7 @@
     </row>
     <row r="861" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A861" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B861">
         <v>2030</v>
@@ -31649,7 +31622,7 @@
     </row>
     <row r="862" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A862" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B862">
         <v>2035</v>
@@ -31660,7 +31633,7 @@
     </row>
     <row r="863" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A863" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B863">
         <v>2040</v>
@@ -31671,7 +31644,7 @@
     </row>
     <row r="864" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A864" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B864">
         <v>2045</v>
@@ -31682,13 +31655,1128 @@
     </row>
     <row r="865" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A865" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B865">
         <v>2050</v>
       </c>
       <c r="C865">
         <v>1306266.3206780192</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C100"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2">
+        <v>2010</v>
+      </c>
+      <c r="C2">
+        <v>941316.31348355347</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3">
+        <v>2015</v>
+      </c>
+      <c r="C3">
+        <v>1024039.8396577267</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B4">
+        <v>2020</v>
+      </c>
+      <c r="C4">
+        <v>1123960.1863346051</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B5">
+        <v>2025</v>
+      </c>
+      <c r="C5">
+        <v>1245135.9406838862</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B6">
+        <v>2030</v>
+      </c>
+      <c r="C6">
+        <v>1352697.9628249924</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B7">
+        <v>2035</v>
+      </c>
+      <c r="C7">
+        <v>1474770.5147653744</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B8">
+        <v>2040</v>
+      </c>
+      <c r="C8">
+        <v>1626037.010131381</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B9">
+        <v>2045</v>
+      </c>
+      <c r="C9">
+        <v>1818490.2078552013</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B10">
+        <v>2050</v>
+      </c>
+      <c r="C10">
+        <v>2051880.4003219805</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>2010</v>
+      </c>
+      <c r="C11">
+        <v>305377.39399999991</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>2015</v>
+      </c>
+      <c r="C12">
+        <v>352758.62700000009</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>2020</v>
+      </c>
+      <c r="C13">
+        <v>410374.86299999995</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>2025</v>
+      </c>
+      <c r="C14">
+        <v>480024.99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>2030</v>
+      </c>
+      <c r="C15">
+        <v>558485.66999999993</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>2035</v>
+      </c>
+      <c r="C16">
+        <v>650590.25500000012</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>2040</v>
+      </c>
+      <c r="C17">
+        <v>762102.83900000004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>2045</v>
+      </c>
+      <c r="C18">
+        <v>897116.06200000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>2050</v>
+      </c>
+      <c r="C19">
+        <v>1060226.7350000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20">
+        <v>2010</v>
+      </c>
+      <c r="C20">
+        <v>66885.272306790517</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21">
+        <v>2015</v>
+      </c>
+      <c r="C21">
+        <v>77784.224008235455</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22">
+        <v>2020</v>
+      </c>
+      <c r="C22">
+        <v>90772.08517126611</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23">
+        <v>2025</v>
+      </c>
+      <c r="C23">
+        <v>106732.31903542407</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24">
+        <v>2030</v>
+      </c>
+      <c r="C24">
+        <v>124580.43851287322</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25">
+        <v>2035</v>
+      </c>
+      <c r="C25">
+        <v>145541.65035129356</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26">
+        <v>2040</v>
+      </c>
+      <c r="C26">
+        <v>171049.42519192665</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27">
+        <v>2045</v>
+      </c>
+      <c r="C27">
+        <v>202514.35348875701</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28">
+        <v>2050</v>
+      </c>
+      <c r="C28">
+        <v>241170.40428336698</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29">
+        <v>2010</v>
+      </c>
+      <c r="C29">
+        <v>231121.1103305202</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30">
+        <v>2015</v>
+      </c>
+      <c r="C30">
+        <v>239038.28569778157</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31">
+        <v>2020</v>
+      </c>
+      <c r="C31">
+        <v>249195.39948796621</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32">
+        <v>2025</v>
+      </c>
+      <c r="C32">
+        <v>263579.83444738202</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33">
+        <v>2030</v>
+      </c>
+      <c r="C33">
+        <v>269065.34540962375</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34">
+        <v>2035</v>
+      </c>
+      <c r="C34">
+        <v>273144.28460939217</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35">
+        <v>2040</v>
+      </c>
+      <c r="C35">
+        <v>278661.48031275673</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>52</v>
+      </c>
+      <c r="B36">
+        <v>2045</v>
+      </c>
+      <c r="C36">
+        <v>289294.73680115282</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>52</v>
+      </c>
+      <c r="B37">
+        <v>2050</v>
+      </c>
+      <c r="C37">
+        <v>301458.25766946445</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>57</v>
+      </c>
+      <c r="B38">
+        <v>2010</v>
+      </c>
+      <c r="C38">
+        <v>198511.65434802676</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>57</v>
+      </c>
+      <c r="B39">
+        <v>2015</v>
+      </c>
+      <c r="C39">
+        <v>211500.64090856933</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>57</v>
+      </c>
+      <c r="B40">
+        <v>2020</v>
+      </c>
+      <c r="C40">
+        <v>224757.50927190753</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>57</v>
+      </c>
+      <c r="B41">
+        <v>2025</v>
+      </c>
+      <c r="C41">
+        <v>236556.44683139806</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>57</v>
+      </c>
+      <c r="B42">
+        <v>2030</v>
+      </c>
+      <c r="C42">
+        <v>237231.90498744533</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>57</v>
+      </c>
+      <c r="B43">
+        <v>2035</v>
+      </c>
+      <c r="C43">
+        <v>238288.77043175974</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>57</v>
+      </c>
+      <c r="B44">
+        <v>2040</v>
+      </c>
+      <c r="C44">
+        <v>242670.05458193374</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>57</v>
+      </c>
+      <c r="B45">
+        <v>2045</v>
+      </c>
+      <c r="C45">
+        <v>251356.64846450739</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>57</v>
+      </c>
+      <c r="B46">
+        <v>2050</v>
+      </c>
+      <c r="C46">
+        <v>262530.90837981889</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>72</v>
+      </c>
+      <c r="B47">
+        <v>2010</v>
+      </c>
+      <c r="C47">
+        <v>10635.346000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>72</v>
+      </c>
+      <c r="B48">
+        <v>2015</v>
+      </c>
+      <c r="C48">
+        <v>11027.097999999998</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>72</v>
+      </c>
+      <c r="B49">
+        <v>2020</v>
+      </c>
+      <c r="C49">
+        <v>11610.992</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>72</v>
+      </c>
+      <c r="B50">
+        <v>2025</v>
+      </c>
+      <c r="C50">
+        <v>12349.999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>72</v>
+      </c>
+      <c r="B51">
+        <v>2030</v>
+      </c>
+      <c r="C51">
+        <v>12705.344999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>72</v>
+      </c>
+      <c r="B52">
+        <v>2035</v>
+      </c>
+      <c r="C52">
+        <v>13003.441999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>72</v>
+      </c>
+      <c r="B53">
+        <v>2040</v>
+      </c>
+      <c r="C53">
+        <v>13420.992</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>72</v>
+      </c>
+      <c r="B54">
+        <v>2045</v>
+      </c>
+      <c r="C54">
+        <v>14059.858000000002</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>72</v>
+      </c>
+      <c r="B55">
+        <v>2050</v>
+      </c>
+      <c r="C55">
+        <v>14815.963</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>85</v>
+      </c>
+      <c r="B56">
+        <v>2010</v>
+      </c>
+      <c r="C56">
+        <v>42672.365133810628</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>85</v>
+      </c>
+      <c r="B57">
+        <v>2015</v>
+      </c>
+      <c r="C57">
+        <v>43933.523418452212</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>85</v>
+      </c>
+      <c r="B58">
+        <v>2020</v>
+      </c>
+      <c r="C58">
+        <v>46177.159893114353</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>85</v>
+      </c>
+      <c r="B59">
+        <v>2025</v>
+      </c>
+      <c r="C59">
+        <v>49177.786133178335</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>85</v>
+      </c>
+      <c r="B60">
+        <v>2030</v>
+      </c>
+      <c r="C60">
+        <v>51567.792092999778</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>85</v>
+      </c>
+      <c r="B61">
+        <v>2035</v>
+      </c>
+      <c r="C61">
+        <v>53664.342982085887</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>85</v>
+      </c>
+      <c r="B62">
+        <v>2040</v>
+      </c>
+      <c r="C62">
+        <v>55994.927987363859</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>85</v>
+      </c>
+      <c r="B63">
+        <v>2045</v>
+      </c>
+      <c r="C63">
+        <v>58878.461025439297</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>85</v>
+      </c>
+      <c r="B64">
+        <v>2050</v>
+      </c>
+      <c r="C64">
+        <v>62328.36648622869</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>94</v>
+      </c>
+      <c r="B65">
+        <v>2010</v>
+      </c>
+      <c r="C65">
+        <v>82062.941007998481</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>94</v>
+      </c>
+      <c r="B66">
+        <v>2015</v>
+      </c>
+      <c r="C66">
+        <v>83598.270778066304</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>94</v>
+      </c>
+      <c r="B67">
+        <v>2020</v>
+      </c>
+      <c r="C67">
+        <v>86220.210444676472</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>94</v>
+      </c>
+      <c r="B68">
+        <v>2025</v>
+      </c>
+      <c r="C68">
+        <v>91304.864041957466</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>94</v>
+      </c>
+      <c r="B69">
+        <v>2030</v>
+      </c>
+      <c r="C69">
+        <v>93095.977800568158</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>94</v>
+      </c>
+      <c r="B70">
+        <v>2035</v>
+      </c>
+      <c r="C70">
+        <v>94004.490759611566</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>94</v>
+      </c>
+      <c r="B71">
+        <v>2040</v>
+      </c>
+      <c r="C71">
+        <v>94994.611686046308</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>94</v>
+      </c>
+      <c r="B72">
+        <v>2045</v>
+      </c>
+      <c r="C72">
+        <v>97422.031236902636</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>94</v>
+      </c>
+      <c r="B73">
+        <v>2050</v>
+      </c>
+      <c r="C73">
+        <v>100677.71741082353</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>103</v>
+      </c>
+      <c r="B74">
+        <v>2010</v>
+      </c>
+      <c r="C74">
+        <v>4050.2303564068729</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>103</v>
+      </c>
+      <c r="B75">
+        <v>2015</v>
+      </c>
+      <c r="C75">
+        <v>4399.1698466218286</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>103</v>
+      </c>
+      <c r="B76">
+        <v>2020</v>
+      </c>
+      <c r="C76">
+        <v>4851.9670656743865</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>103</v>
+      </c>
+      <c r="B77">
+        <v>2025</v>
+      </c>
+      <c r="C77">
+        <v>5409.7011945462173</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>103</v>
+      </c>
+      <c r="B78">
+        <v>2030</v>
+      </c>
+      <c r="C78">
+        <v>5965.4890214824281</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>103</v>
+      </c>
+      <c r="B79">
+        <v>2035</v>
+      </c>
+      <c r="C79">
+        <v>6533.2786312309818</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>103</v>
+      </c>
+      <c r="B80">
+        <v>2040</v>
+      </c>
+      <c r="C80">
+        <v>7142.679371353679</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>103</v>
+      </c>
+      <c r="B81">
+        <v>2045</v>
+      </c>
+      <c r="C81">
+        <v>7848.056838442425</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>103</v>
+      </c>
+      <c r="B82">
+        <v>2050</v>
+      </c>
+      <c r="C82">
+        <v>8672.0480922777751</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>120</v>
+      </c>
+      <c r="B83">
+        <v>2010</v>
+      </c>
+      <c r="C83">
+        <v>898297.29351644625</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>120</v>
+      </c>
+      <c r="B84">
+        <v>2015</v>
+      </c>
+      <c r="C84">
+        <v>985312.47134227341</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>120</v>
+      </c>
+      <c r="B85">
+        <v>2020</v>
+      </c>
+      <c r="C85">
+        <v>1077665.1056653948</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>120</v>
+      </c>
+      <c r="B86">
+        <v>2025</v>
+      </c>
+      <c r="C86">
+        <v>1150231.6223161139</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>120</v>
+      </c>
+      <c r="B87">
+        <v>2030</v>
+      </c>
+      <c r="C87">
+        <v>1140362.859175008</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>120</v>
+      </c>
+      <c r="B88">
+        <v>2035</v>
+      </c>
+      <c r="C88">
+        <v>1139136.6812346259</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>120</v>
+      </c>
+      <c r="B89">
+        <v>2040</v>
+      </c>
+      <c r="C89">
+        <v>1167254.8728686192</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>120</v>
+      </c>
+      <c r="B90">
+        <v>2045</v>
+      </c>
+      <c r="C90">
+        <v>1229265.5081447982</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>120</v>
+      </c>
+      <c r="B91">
+        <v>2050</v>
+      </c>
+      <c r="C91">
+        <v>1306266.3206780192</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>1</v>
+      </c>
+      <c r="B92">
+        <v>2010</v>
+      </c>
+      <c r="C92">
+        <v>1842236.9780000001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>1</v>
+      </c>
+      <c r="B93">
+        <v>2015</v>
+      </c>
+      <c r="C93">
+        <v>1971607.5409999997</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>1</v>
+      </c>
+      <c r="B94">
+        <v>2020</v>
+      </c>
+      <c r="C94">
+        <v>2134885.7249999996</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>1</v>
+      </c>
+      <c r="B95">
+        <v>2025</v>
+      </c>
+      <c r="C95">
+        <v>2296484.3820000002</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>1</v>
+      </c>
+      <c r="B96">
+        <v>2030</v>
+      </c>
+      <c r="C96">
+        <v>2371051.5830000001</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>1</v>
+      </c>
+      <c r="B97">
+        <v>2035</v>
+      </c>
+      <c r="C97">
+        <v>2452954.577</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>1</v>
+      </c>
+      <c r="B98">
+        <v>2040</v>
+      </c>
+      <c r="C98">
+        <v>2586828.0989999999</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>1</v>
+      </c>
+      <c r="B99">
+        <v>2045</v>
+      </c>
+      <c r="C99">
+        <v>2804311.3569999998</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>1</v>
+      </c>
+      <c r="B100">
+        <v>2050</v>
+      </c>
+      <c r="C100">
+        <v>3069537.2379999999</v>
       </c>
     </row>
   </sheetData>
